--- a/Data/EC/NIT-9004772356.xlsx
+++ b/Data/EC/NIT-9004772356.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8389F3C-00DF-456F-A86E-25FF74BE0408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F12436-388C-489E-BCF8-B6E6305341CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CBAA043-5B0A-40FA-A3BA-EE3CF488B507}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DFC52552-3811-4F1A-BC7F-6E887E5B27E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="219">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,31 +65,433 @@
     <t>CC</t>
   </si>
   <si>
+    <t>30854132</t>
+  </si>
+  <si>
+    <t>SUHALY CASTILLO VERGARA</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1130587089</t>
+  </si>
+  <si>
+    <t>ALEXANDER ZUÑIGA BERMUDEZ</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>45498399</t>
+  </si>
+  <si>
+    <t>MARTHA SUSANA HERNANDEZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>73115073</t>
+  </si>
+  <si>
+    <t>RAFAEL DARIO DE LA OSSA REYES</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1047369103</t>
+  </si>
+  <si>
+    <t>GINA CONCEPCION ANGULO MENDOZA</t>
+  </si>
+  <si>
+    <t>73140604</t>
+  </si>
+  <si>
+    <t>EFRAIN HERRERA TORRES</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>72235980</t>
+  </si>
+  <si>
+    <t>JIMMY ANTHONY GOMEZ AFRICANO</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1010195619</t>
+  </si>
+  <si>
+    <t>SANDY YOREDIS CANTILLO ROMERO</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>32909337</t>
+  </si>
+  <si>
+    <t>LUZ MARINA ARIAS RODELO</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
     <t>1084735542</t>
   </si>
   <si>
     <t>ANDREA MARIA URIBE CAHUANA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
+    <t>79596577</t>
+  </si>
+  <si>
+    <t>NESTOR CASTRO CASTANEDA</t>
+  </si>
+  <si>
+    <t>45767005</t>
+  </si>
+  <si>
+    <t>ILSA VIRGINIA FAJARDO CASTANEZ</t>
+  </si>
+  <si>
+    <t>11806390</t>
+  </si>
+  <si>
+    <t>ENDIR ESLIK HURTADO RIVAS</t>
+  </si>
+  <si>
+    <t>1047377204</t>
+  </si>
+  <si>
+    <t>HERRERA AREVALO LEDIEN MARIAN</t>
+  </si>
+  <si>
     <t>27103198</t>
   </si>
   <si>
     <t>LUZ MARINA NOGUERA REALPE</t>
   </si>
   <si>
-    <t>1047377204</t>
-  </si>
-  <si>
-    <t>HERRERA AREVALO LEDIEN MARIAN</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
+    <t>1047439979</t>
+  </si>
+  <si>
+    <t>CLAUDIA MARGARITA CARRASQUILLA MIRANDA</t>
+  </si>
+  <si>
+    <t>1047474882</t>
+  </si>
+  <si>
+    <t>MARIA ALEJANDRA GONZALEZ TATIS</t>
   </si>
   <si>
     <t>1070944074</t>
@@ -98,13 +500,22 @@
     <t>LILIANA ANDREA VASQUEZ FORERO</t>
   </si>
   <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1010195619</t>
-  </si>
-  <si>
-    <t>SANDY YOREDIS CANTILLO ROMERO</t>
+    <t>1143362482</t>
+  </si>
+  <si>
+    <t>GIOVANNY JOSE CASTILLO SAENZ</t>
+  </si>
+  <si>
+    <t>1143375135</t>
+  </si>
+  <si>
+    <t>NATALIE MICHELLE ZULUAGA CERVANTES</t>
+  </si>
+  <si>
+    <t>1143396368</t>
+  </si>
+  <si>
+    <t>MARGARITA BARRIOS CARMONA</t>
   </si>
   <si>
     <t>1047403693</t>
@@ -113,40 +524,10 @@
     <t>LUIS FERNADO OSPINO JAIME</t>
   </si>
   <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>72235980</t>
-  </si>
-  <si>
-    <t>JIMMY ANTHONY GOMEZ AFRICANO</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
+    <t>37197678</t>
+  </si>
+  <si>
+    <t>NELLY BALLESTERO COMBARIZA</t>
   </si>
   <si>
     <t>12265849</t>
@@ -155,103 +536,58 @@
     <t>FREDDY TOLEDO BERMEO</t>
   </si>
   <si>
-    <t>1709</t>
-  </si>
-  <si>
     <t>94510214</t>
   </si>
   <si>
     <t>JULIAN ANDRES VILLALBA TABA</t>
   </si>
   <si>
-    <t>73115073</t>
-  </si>
-  <si>
-    <t>RAFAEL DARIO DE LA OSSA REYES</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
     <t>8713855</t>
   </si>
   <si>
     <t>LEONIDAS MANUEL ALVAREZ PEREZ</t>
   </si>
   <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>37197678</t>
-  </si>
-  <si>
-    <t>NELLY BALLESTERO COMBARIZA</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>30854132</t>
-  </si>
-  <si>
-    <t>SUHALY CASTILLO VERGARA</t>
-  </si>
-  <si>
-    <t>1047369103</t>
-  </si>
-  <si>
-    <t>GINA CONCEPCION ANGULO MENDOZA</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1047439979</t>
-  </si>
-  <si>
-    <t>CLAUDIA MARGARITA CARRASQUILLA MIRANDA</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
+    <t>52799065</t>
+  </si>
+  <si>
+    <t>CAROLINA PERDIGON CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>1105680281</t>
+  </si>
+  <si>
+    <t>EDWIN NEIL VELASQUEZ ROMERO</t>
+  </si>
+  <si>
+    <t>6646218</t>
+  </si>
+  <si>
+    <t>OSCAR JULIAN HOLGUIN RUBIANO</t>
+  </si>
+  <si>
+    <t>45512802</t>
+  </si>
+  <si>
+    <t>ZOILA MARGARITA CASTRO HURTADO</t>
+  </si>
+  <si>
+    <t>53054085</t>
+  </si>
+  <si>
+    <t>DIANA MARCELA BUITRAGO MEDINA</t>
+  </si>
+  <si>
+    <t>77103219</t>
+  </si>
+  <si>
+    <t>EDGAR AUGUSTO OLIVELLA MAESTRE</t>
+  </si>
+  <si>
+    <t>29819263</t>
+  </si>
+  <si>
+    <t>CLAUDIA PATRICIA ZULUAGA OLMOS</t>
   </si>
   <si>
     <t>1102830561</t>
@@ -260,22 +596,10 @@
     <t>MARIA MARGARITA SIERRA ORTEGA</t>
   </si>
   <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>45512802</t>
-  </si>
-  <si>
-    <t>ZOILA MARGARITA CASTRO HURTADO</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
+    <t>1143355397</t>
+  </si>
+  <si>
+    <t>YERLIS MILENA RAMOS TATIS</t>
   </si>
   <si>
     <t>4427481</t>
@@ -284,157 +608,22 @@
     <t>HERNANDO ZULUAGA GIRALDO</t>
   </si>
   <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1143355397</t>
-  </si>
-  <si>
-    <t>YERLIS MILENA RAMOS TATIS</t>
-  </si>
-  <si>
-    <t>79596577</t>
-  </si>
-  <si>
-    <t>NESTOR CASTRO CASTANEDA</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>52799065</t>
-  </si>
-  <si>
-    <t>CAROLINA PERDIGON CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1105680281</t>
-  </si>
-  <si>
-    <t>EDWIN NEIL VELASQUEZ ROMERO</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1130587089</t>
-  </si>
-  <si>
-    <t>ALEXANDER ZUÑIGA BERMUDEZ</t>
-  </si>
-  <si>
-    <t>77103219</t>
-  </si>
-  <si>
-    <t>EDGAR AUGUSTO OLIVELLA MAESTRE</t>
-  </si>
-  <si>
-    <t>53054085</t>
-  </si>
-  <si>
-    <t>DIANA MARCELA BUITRAGO MEDINA</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>22464885</t>
   </si>
   <si>
     <t>HEYDI PATRICIA QUINTERO SANTAMARIA</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
     <t>79713872</t>
   </si>
   <si>
     <t>LEONARDO HERNANDEZ AGUIRRE</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>6646218</t>
-  </si>
-  <si>
-    <t>OSCAR JULIAN HOLGUIN RUBIANO</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
+    <t>1143369312</t>
+  </si>
+  <si>
+    <t>KEINNY DE JESUS LOPEZ CARRASQUILLA</t>
   </si>
   <si>
     <t>40035810</t>
@@ -443,160 +632,34 @@
     <t>SANDRA ROCIO RODRIGUEZ LOPEZ</t>
   </si>
   <si>
-    <t>1143362482</t>
-  </si>
-  <si>
-    <t>GIOVANNY JOSE CASTILLO SAENZ</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
     <t>79388742</t>
   </si>
   <si>
     <t>WILSON PATIÑO SANCHEZ</t>
   </si>
   <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>73140604</t>
-  </si>
-  <si>
-    <t>EFRAIN HERRERA TORRES</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>1143396368</t>
-  </si>
-  <si>
-    <t>MARGARITA BARRIOS CARMONA</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>45498399</t>
-  </si>
-  <si>
-    <t>MARTHA SUSANA HERNANDEZ ALVAREZ</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>11806390</t>
-  </si>
-  <si>
-    <t>ENDIR ESLIK HURTADO RIVAS</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>79514277</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS JAUREGUI BUENAVENTURA</t>
+  </si>
+  <si>
+    <t>24713561</t>
+  </si>
+  <si>
+    <t>MONICA MARTINEZ CHAVEZ</t>
+  </si>
+  <si>
+    <t>1053007279</t>
+  </si>
+  <si>
+    <t>ALINA MARCELA MERCADO CORRERA</t>
+  </si>
+  <si>
+    <t>1007280069</t>
+  </si>
+  <si>
+    <t>SEBASTIAN JOSE HERNANDEZ HERNANDEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -1010,7 +1073,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52C9176-5B77-B624-7A9E-E8FF7B86432B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE260EDA-9E5D-C1FD-AF92-68B932607166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,8 +1424,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D9578F-8596-4122-A749-CCE5595BB534}">
-  <dimension ref="B2:J335"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050656EF-5A12-4F8F-9742-FE984DFF1603}">
+  <dimension ref="B2:J369"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1386,7 +1449,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1431,7 +1494,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1463,12 +1526,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>26471888</v>
+        <v>30381432</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1479,17 +1542,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C13" s="5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1516,13 +1579,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1539,10 +1602,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>73033</v>
+        <v>35669</v>
       </c>
       <c r="G16" s="18">
-        <v>1825843</v>
+        <v>1836730</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1559,13 +1622,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>41042</v>
+        <v>103560</v>
       </c>
       <c r="G17" s="18">
-        <v>1026063</v>
+        <v>2721555</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1576,19 +1639,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>67418</v>
+        <v>103560</v>
       </c>
       <c r="G18" s="18">
-        <v>1685449</v>
+        <v>2721555</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1608,10 +1671,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>41042</v>
+        <v>103560</v>
       </c>
       <c r="G19" s="18">
-        <v>1026063</v>
+        <v>2721555</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1622,19 +1685,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>67418</v>
+        <v>93152</v>
       </c>
       <c r="G20" s="18">
-        <v>1685449</v>
+        <v>2328818</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1645,19 +1708,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G21" s="18">
-        <v>1825843</v>
+        <v>2905284</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1668,19 +1731,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>41042</v>
+        <v>71969</v>
       </c>
       <c r="G22" s="18">
-        <v>1026063</v>
+        <v>2905284</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1691,19 +1754,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>59617</v>
+        <v>81932</v>
       </c>
       <c r="G23" s="18">
-        <v>3147287</v>
+        <v>2048297</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1714,19 +1777,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F24" s="18">
-        <v>67418</v>
+        <v>92352</v>
       </c>
       <c r="G24" s="18">
-        <v>1685449</v>
+        <v>2798005</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1737,19 +1800,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G25" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1760,19 +1823,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G26" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1783,19 +1846,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F27" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G27" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1806,19 +1869,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F28" s="18">
-        <v>34082</v>
+        <v>59617</v>
       </c>
       <c r="G28" s="18">
-        <v>2250064</v>
+        <v>1490437</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1829,19 +1892,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F29" s="18">
-        <v>67418</v>
+        <v>59617</v>
       </c>
       <c r="G29" s="18">
-        <v>1685449</v>
+        <v>1490437</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1852,19 +1915,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F30" s="18">
-        <v>41042</v>
+        <v>59617</v>
       </c>
       <c r="G30" s="18">
-        <v>1026063</v>
+        <v>1490437</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1875,19 +1938,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F31" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G31" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1898,19 +1961,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F32" s="18">
-        <v>67418</v>
+        <v>59617</v>
       </c>
       <c r="G32" s="18">
-        <v>1685449</v>
+        <v>1490437</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1921,19 +1984,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F33" s="18">
-        <v>41042</v>
+        <v>59617</v>
       </c>
       <c r="G33" s="18">
-        <v>1026063</v>
+        <v>1490437</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1944,19 +2007,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F34" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G34" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1967,13 +2030,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F35" s="18">
         <v>73033</v>
@@ -1990,13 +2053,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F36" s="18">
         <v>73033</v>
@@ -2013,19 +2076,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F37" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G37" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -2036,19 +2099,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G38" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -2059,13 +2122,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
         <v>73033</v>
@@ -2082,19 +2145,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F40" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G40" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2105,19 +2168,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G41" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -2128,13 +2191,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
         <v>73033</v>
@@ -2151,19 +2214,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F43" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G43" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2174,19 +2237,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F44" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G44" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2197,13 +2260,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18">
         <v>73033</v>
@@ -2220,19 +2283,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G46" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2243,13 +2306,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
         <v>73033</v>
@@ -2266,19 +2329,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G48" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2289,19 +2352,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G49" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2312,19 +2375,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G50" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2335,19 +2398,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
-        <v>41042</v>
+        <v>3426</v>
       </c>
       <c r="G51" s="18">
-        <v>1026063</v>
+        <v>2569133</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2358,13 +2421,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F52" s="18">
         <v>73033</v>
@@ -2381,13 +2444,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F53" s="18">
         <v>73033</v>
@@ -2404,19 +2467,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F54" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G54" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2427,13 +2490,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F55" s="18">
         <v>73033</v>
@@ -2450,19 +2513,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F56" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G56" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2473,13 +2536,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F57" s="18">
         <v>73033</v>
@@ -2496,19 +2559,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F58" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G58" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2519,13 +2582,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F59" s="18">
         <v>73033</v>
@@ -2542,13 +2605,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F60" s="18">
         <v>73033</v>
@@ -2565,19 +2628,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F61" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G61" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2588,19 +2651,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F62" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G62" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2611,19 +2674,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F63" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G63" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2634,19 +2697,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F64" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G64" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2657,13 +2720,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F65" s="18">
         <v>73033</v>
@@ -2680,19 +2743,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F66" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G66" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2703,19 +2766,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F67" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G67" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2726,13 +2789,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F68" s="18">
         <v>73033</v>
@@ -2749,13 +2812,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F69" s="18">
         <v>73033</v>
@@ -2772,13 +2835,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F70" s="18">
         <v>73033</v>
@@ -2795,19 +2858,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="F71" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G71" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2818,19 +2881,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F72" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G72" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2841,19 +2904,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F73" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G73" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2864,13 +2927,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F74" s="18">
         <v>73033</v>
@@ -2887,13 +2950,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="F75" s="18">
         <v>73033</v>
@@ -2910,19 +2973,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F76" s="18">
-        <v>67418</v>
+        <v>46254</v>
       </c>
       <c r="G76" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2933,19 +2996,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F77" s="18">
-        <v>77964</v>
+        <v>73033</v>
       </c>
       <c r="G77" s="18">
-        <v>1949088</v>
+        <v>1825843</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2956,19 +3019,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F78" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G78" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2979,19 +3042,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="F79" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G79" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -3002,19 +3065,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F80" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G80" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -3025,19 +3088,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F81" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G81" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -3048,19 +3111,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F82" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G82" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -3071,19 +3134,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
-        <v>62373</v>
+        <v>73033</v>
       </c>
       <c r="G83" s="18">
-        <v>1890798</v>
+        <v>1825843</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -3094,19 +3157,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F84" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G84" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -3117,13 +3180,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="F85" s="18">
         <v>73033</v>
@@ -3140,13 +3203,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F86" s="18">
         <v>73033</v>
@@ -3163,19 +3226,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="F87" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G87" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3186,19 +3249,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F88" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G88" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3209,13 +3272,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F89" s="18">
         <v>73033</v>
@@ -3232,19 +3295,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F90" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G90" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3255,19 +3318,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F91" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G91" s="18">
-        <v>1890798</v>
+        <v>1825843</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3278,19 +3341,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F92" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G92" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3301,13 +3364,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F93" s="18">
         <v>73033</v>
@@ -3324,13 +3387,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F94" s="18">
         <v>73033</v>
@@ -3347,19 +3410,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F95" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G95" s="18">
-        <v>1890798</v>
+        <v>1825843</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3370,19 +3433,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F96" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G96" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3393,13 +3456,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="F97" s="18">
         <v>73033</v>
@@ -3416,19 +3479,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F98" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G98" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3439,19 +3502,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F99" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G99" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3462,13 +3525,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F100" s="18">
         <v>73033</v>
@@ -3485,19 +3548,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F101" s="18">
-        <v>40305</v>
+        <v>73033</v>
       </c>
       <c r="G101" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3508,19 +3571,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="F102" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G102" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3531,19 +3594,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F103" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G103" s="18">
-        <v>1890798</v>
+        <v>1825843</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3554,13 +3617,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="F104" s="18">
         <v>73033</v>
@@ -3577,19 +3640,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="F105" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G105" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3600,19 +3663,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F106" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G106" s="18">
-        <v>1890798</v>
+        <v>1825843</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3623,13 +3686,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F107" s="18">
         <v>73033</v>
@@ -3646,19 +3709,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F108" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G108" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3669,13 +3732,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F109" s="18">
         <v>73033</v>
@@ -3692,19 +3755,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="F110" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G110" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3715,19 +3778,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F111" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G111" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3738,13 +3801,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F112" s="18">
         <v>73033</v>
@@ -3761,19 +3824,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F113" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G113" s="18">
-        <v>1890798</v>
+        <v>1825843</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3784,13 +3847,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F114" s="18">
         <v>73033</v>
@@ -3807,19 +3870,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F115" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G115" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3830,19 +3893,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F116" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G116" s="18">
-        <v>1890798</v>
+        <v>1825843</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3853,19 +3916,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F117" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G117" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3876,13 +3939,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F118" s="18">
         <v>73033</v>
@@ -3899,13 +3962,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F119" s="18">
         <v>73033</v>
@@ -3922,19 +3985,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F120" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G120" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3945,13 +4008,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="F121" s="18">
         <v>73033</v>
@@ -3968,19 +4031,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F122" s="18">
-        <v>22093</v>
+        <v>73033</v>
       </c>
       <c r="G122" s="18">
-        <v>1451106</v>
+        <v>1825843</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3991,19 +4054,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F123" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G123" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -4014,13 +4077,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F124" s="18">
         <v>73033</v>
@@ -4037,19 +4100,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="F125" s="18">
-        <v>35669</v>
+        <v>73033</v>
       </c>
       <c r="G125" s="18">
-        <v>1836730</v>
+        <v>1825843</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -4060,19 +4123,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F126" s="18">
-        <v>81932</v>
+        <v>73033</v>
       </c>
       <c r="G126" s="18">
-        <v>2048297</v>
+        <v>1825843</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -4083,19 +4146,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="F127" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G127" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -4106,13 +4169,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F128" s="18">
         <v>73033</v>
@@ -4129,19 +4192,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="F129" s="18">
-        <v>70921</v>
+        <v>73033</v>
       </c>
       <c r="G129" s="18">
-        <v>1773036</v>
+        <v>1825843</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4152,19 +4215,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="F130" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G130" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4175,13 +4238,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F131" s="18">
         <v>73033</v>
@@ -4198,13 +4261,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="F132" s="18">
         <v>73033</v>
@@ -4221,13 +4284,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="F133" s="18">
         <v>73033</v>
@@ -4244,13 +4307,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F134" s="18">
         <v>73033</v>
@@ -4267,13 +4330,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="F135" s="18">
         <v>73033</v>
@@ -4290,13 +4353,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F136" s="18">
         <v>73033</v>
@@ -4313,13 +4376,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="F137" s="18">
         <v>73033</v>
@@ -4336,19 +4399,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="F138" s="18">
-        <v>124040</v>
+        <v>73033</v>
       </c>
       <c r="G138" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4359,19 +4422,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="F139" s="18">
-        <v>81932</v>
+        <v>73033</v>
       </c>
       <c r="G139" s="18">
-        <v>2048297</v>
+        <v>1825843</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4382,13 +4445,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="F140" s="18">
         <v>73033</v>
@@ -4405,13 +4468,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="F141" s="18">
         <v>73033</v>
@@ -4428,13 +4491,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F142" s="18">
         <v>73033</v>
@@ -4451,19 +4514,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="F143" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G143" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4474,13 +4537,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="F144" s="18">
         <v>73033</v>
@@ -4497,19 +4560,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="F145" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G145" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4520,19 +4583,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="F146" s="18">
-        <v>132000</v>
+        <v>73033</v>
       </c>
       <c r="G146" s="18">
-        <v>4766134</v>
+        <v>1825843</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4543,19 +4606,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="F147" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G147" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4566,19 +4629,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F148" s="18">
-        <v>66880</v>
+        <v>73033</v>
       </c>
       <c r="G148" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4589,13 +4652,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F149" s="18">
         <v>73033</v>
@@ -4612,19 +4675,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="F150" s="18">
-        <v>299212</v>
+        <v>73033</v>
       </c>
       <c r="G150" s="18">
-        <v>7480301</v>
+        <v>1825843</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4635,19 +4698,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="F151" s="18">
-        <v>66880</v>
+        <v>73033</v>
       </c>
       <c r="G151" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4658,19 +4721,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="F152" s="18">
-        <v>299212</v>
+        <v>73033</v>
       </c>
       <c r="G152" s="18">
-        <v>7480301</v>
+        <v>1825843</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4681,13 +4744,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="F153" s="18">
         <v>73033</v>
@@ -4704,19 +4767,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="F154" s="18">
-        <v>81923</v>
+        <v>73033</v>
       </c>
       <c r="G154" s="18">
-        <v>2048055</v>
+        <v>1825843</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4727,19 +4790,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="F155" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G155" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4750,19 +4813,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F156" s="18">
-        <v>19947</v>
+        <v>73033</v>
       </c>
       <c r="G156" s="18">
-        <v>7480301</v>
+        <v>1825843</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4773,13 +4836,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F157" s="18">
         <v>73033</v>
@@ -4796,19 +4859,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="F158" s="18">
-        <v>66880</v>
+        <v>73033</v>
       </c>
       <c r="G158" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4819,19 +4882,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="F159" s="18">
-        <v>2731</v>
+        <v>73033</v>
       </c>
       <c r="G159" s="18">
-        <v>2048055</v>
+        <v>1825843</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4842,19 +4905,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="F160" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G160" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4865,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F161" s="18">
-        <v>66880</v>
+        <v>19947</v>
       </c>
       <c r="G161" s="18">
-        <v>2905284</v>
+        <v>7480301</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4888,19 +4951,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F162" s="18">
-        <v>73033</v>
+        <v>299212</v>
       </c>
       <c r="G162" s="18">
-        <v>1825843</v>
+        <v>7480301</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4911,19 +4974,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="F163" s="18">
-        <v>124075</v>
+        <v>299212</v>
       </c>
       <c r="G163" s="18">
-        <v>3101867</v>
+        <v>7480301</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4934,19 +4997,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F164" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G164" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4957,16 +5020,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F165" s="18">
-        <v>66880</v>
+        <v>116212</v>
       </c>
       <c r="G165" s="18">
         <v>2905284</v>
@@ -4980,19 +5043,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F166" s="18">
-        <v>73033</v>
+        <v>116212</v>
       </c>
       <c r="G166" s="18">
-        <v>1825843</v>
+        <v>2905284</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -5003,19 +5066,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F167" s="18">
-        <v>69890</v>
+        <v>116212</v>
       </c>
       <c r="G167" s="18">
-        <v>1747269</v>
+        <v>2905284</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -5026,19 +5089,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F168" s="18">
-        <v>73033</v>
+        <v>116212</v>
       </c>
       <c r="G168" s="18">
-        <v>1825843</v>
+        <v>2905284</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -5049,19 +5112,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F169" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G169" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -5072,19 +5135,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="F170" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G170" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -5095,19 +5158,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F171" s="18">
-        <v>103560</v>
+        <v>116212</v>
       </c>
       <c r="G171" s="18">
-        <v>2721555</v>
+        <v>2905284</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -5118,19 +5181,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F172" s="18">
-        <v>6989</v>
+        <v>116212</v>
       </c>
       <c r="G172" s="18">
-        <v>1836730</v>
+        <v>2905284</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -5141,19 +5204,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F173" s="18">
-        <v>4659</v>
+        <v>116212</v>
       </c>
       <c r="G173" s="18">
-        <v>1836730</v>
+        <v>2905284</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5164,19 +5227,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="F174" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G174" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5187,19 +5250,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F175" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G175" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5210,19 +5273,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F176" s="18">
-        <v>124075</v>
+        <v>67418</v>
       </c>
       <c r="G176" s="18">
-        <v>3101867</v>
+        <v>1685449</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5233,19 +5296,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F177" s="18">
-        <v>103560</v>
+        <v>67418</v>
       </c>
       <c r="G177" s="18">
-        <v>2721555</v>
+        <v>1685449</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5256,19 +5319,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="F178" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G178" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5279,19 +5342,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="F179" s="18">
-        <v>103560</v>
+        <v>67418</v>
       </c>
       <c r="G179" s="18">
-        <v>2721555</v>
+        <v>1685449</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5302,19 +5365,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="F180" s="18">
-        <v>124075</v>
+        <v>67418</v>
       </c>
       <c r="G180" s="18">
-        <v>3101867</v>
+        <v>1685449</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5325,19 +5388,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="F181" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G181" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5348,19 +5411,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="F182" s="18">
-        <v>124075</v>
+        <v>67418</v>
       </c>
       <c r="G182" s="18">
-        <v>3101867</v>
+        <v>1685449</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5371,19 +5434,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="F183" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G183" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5394,19 +5457,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="F184" s="18">
-        <v>124075</v>
+        <v>67418</v>
       </c>
       <c r="G184" s="18">
-        <v>3101867</v>
+        <v>1685449</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5417,19 +5480,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="F185" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G185" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5440,19 +5503,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="F186" s="18">
-        <v>124075</v>
+        <v>67418</v>
       </c>
       <c r="G186" s="18">
-        <v>3101867</v>
+        <v>1685449</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5463,19 +5526,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="F187" s="18">
-        <v>124075</v>
+        <v>67418</v>
       </c>
       <c r="G187" s="18">
-        <v>3101867</v>
+        <v>1685449</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5486,19 +5549,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="F188" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G188" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5509,19 +5572,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="F189" s="18">
-        <v>124075</v>
+        <v>67418</v>
       </c>
       <c r="G189" s="18">
-        <v>3101867</v>
+        <v>1685449</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5532,19 +5595,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F190" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G190" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5555,19 +5618,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F191" s="18">
-        <v>20000</v>
+        <v>67418</v>
       </c>
       <c r="G191" s="18">
-        <v>2721555</v>
+        <v>1685449</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5578,19 +5641,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="F192" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G192" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5601,19 +5664,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F193" s="18">
-        <v>59815</v>
+        <v>41042</v>
       </c>
       <c r="G193" s="18">
-        <v>3291615</v>
+        <v>1026063</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5624,19 +5687,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="F194" s="18">
-        <v>124075</v>
+        <v>41042</v>
       </c>
       <c r="G194" s="18">
-        <v>3101867</v>
+        <v>1026063</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5647,19 +5710,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F195" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G195" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5670,19 +5733,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F196" s="18">
-        <v>124075</v>
+        <v>41042</v>
       </c>
       <c r="G196" s="18">
-        <v>3101867</v>
+        <v>1026063</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5693,19 +5756,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="F197" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G197" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5716,19 +5779,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="F198" s="18">
-        <v>124075</v>
+        <v>41042</v>
       </c>
       <c r="G198" s="18">
-        <v>3101867</v>
+        <v>1026063</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5739,19 +5802,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="F199" s="18">
-        <v>124075</v>
+        <v>41042</v>
       </c>
       <c r="G199" s="18">
-        <v>3101867</v>
+        <v>1026063</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5762,19 +5825,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="F200" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G200" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5785,19 +5848,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="F201" s="18">
-        <v>124075</v>
+        <v>41042</v>
       </c>
       <c r="G201" s="18">
-        <v>3101867</v>
+        <v>1026063</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5808,19 +5871,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="F202" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G202" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5831,19 +5894,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="F203" s="18">
-        <v>2449</v>
+        <v>41042</v>
       </c>
       <c r="G203" s="18">
-        <v>2077050</v>
+        <v>1026063</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5854,19 +5917,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="F204" s="18">
-        <v>124075</v>
+        <v>41042</v>
       </c>
       <c r="G204" s="18">
-        <v>3101867</v>
+        <v>1026063</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5877,19 +5940,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="F205" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G205" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5900,19 +5963,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="F206" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G206" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5923,19 +5986,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F207" s="18">
-        <v>124075</v>
+        <v>41042</v>
       </c>
       <c r="G207" s="18">
-        <v>3101867</v>
+        <v>1026063</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5946,19 +6009,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="F208" s="18">
-        <v>124075</v>
+        <v>41042</v>
       </c>
       <c r="G208" s="18">
-        <v>3101867</v>
+        <v>1026063</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5969,19 +6032,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F209" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G209" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5992,19 +6055,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F210" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G210" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -6015,19 +6078,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F211" s="18">
-        <v>124075</v>
+        <v>41042</v>
       </c>
       <c r="G211" s="18">
-        <v>3101867</v>
+        <v>1026063</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -6038,19 +6101,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F212" s="18">
-        <v>73033</v>
+        <v>70921</v>
       </c>
       <c r="G212" s="18">
-        <v>1825843</v>
+        <v>1773036</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -6061,19 +6124,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F213" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G213" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -6084,19 +6147,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F214" s="18">
-        <v>73033</v>
+        <v>116212</v>
       </c>
       <c r="G214" s="18">
-        <v>1825843</v>
+        <v>2905284</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -6107,19 +6170,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F215" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G215" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -6130,19 +6193,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="F216" s="18">
-        <v>73033</v>
+        <v>116212</v>
       </c>
       <c r="G216" s="18">
-        <v>1825843</v>
+        <v>2905284</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -6153,19 +6216,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="F217" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G217" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6176,19 +6239,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="F218" s="18">
-        <v>73033</v>
+        <v>116212</v>
       </c>
       <c r="G218" s="18">
-        <v>1825843</v>
+        <v>2905284</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6199,19 +6262,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="F219" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G219" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6222,19 +6285,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="F220" s="18">
-        <v>73033</v>
+        <v>116212</v>
       </c>
       <c r="G220" s="18">
-        <v>1825843</v>
+        <v>2905284</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6245,19 +6308,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="F221" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G221" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6268,19 +6331,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="F222" s="18">
-        <v>73033</v>
+        <v>116212</v>
       </c>
       <c r="G222" s="18">
-        <v>1825843</v>
+        <v>2905284</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6291,19 +6354,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="F223" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G223" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6314,19 +6377,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="F224" s="18">
-        <v>73033</v>
+        <v>116212</v>
       </c>
       <c r="G224" s="18">
-        <v>1825843</v>
+        <v>2905284</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6337,19 +6400,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="F225" s="18">
-        <v>18000</v>
+        <v>116212</v>
       </c>
       <c r="G225" s="18">
-        <v>2250064</v>
+        <v>2905284</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6360,19 +6423,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F226" s="18">
-        <v>124075</v>
+        <v>59617</v>
       </c>
       <c r="G226" s="18">
-        <v>3101867</v>
+        <v>3147287</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6383,19 +6446,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="F227" s="18">
-        <v>124075</v>
+        <v>59129</v>
       </c>
       <c r="G227" s="18">
-        <v>3101867</v>
+        <v>4310846</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6406,19 +6469,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="F228" s="18">
-        <v>73033</v>
+        <v>93152</v>
       </c>
       <c r="G228" s="18">
-        <v>1825843</v>
+        <v>2328818</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6429,19 +6492,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="F229" s="18">
-        <v>46618</v>
+        <v>93152</v>
       </c>
       <c r="G229" s="18">
-        <v>4766134</v>
+        <v>2328818</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6452,19 +6515,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F230" s="18">
-        <v>59129</v>
+        <v>102766</v>
       </c>
       <c r="G230" s="18">
-        <v>4310846</v>
+        <v>2569133</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6475,19 +6538,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="F231" s="18">
-        <v>124075</v>
+        <v>102766</v>
       </c>
       <c r="G231" s="18">
-        <v>3101867</v>
+        <v>2569133</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6498,19 +6561,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="F232" s="18">
-        <v>73033</v>
+        <v>18000</v>
       </c>
       <c r="G232" s="18">
-        <v>1825843</v>
+        <v>2308791</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6521,19 +6584,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="F233" s="18">
-        <v>322741</v>
+        <v>34082</v>
       </c>
       <c r="G233" s="18">
-        <v>8654300</v>
+        <v>2308791</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6544,19 +6607,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="F234" s="18">
-        <v>92352</v>
+        <v>89188</v>
       </c>
       <c r="G234" s="18">
-        <v>2798005</v>
+        <v>2229680</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6567,19 +6630,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="F235" s="18">
-        <v>124075</v>
+        <v>89188</v>
       </c>
       <c r="G235" s="18">
-        <v>3101867</v>
+        <v>2229680</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6590,19 +6653,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="F236" s="18">
-        <v>73033</v>
+        <v>89188</v>
       </c>
       <c r="G236" s="18">
-        <v>1825843</v>
+        <v>2229680</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6613,19 +6676,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="F237" s="18">
-        <v>73033</v>
+        <v>89188</v>
       </c>
       <c r="G237" s="18">
-        <v>1825843</v>
+        <v>2229680</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6636,19 +6699,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="F238" s="18">
-        <v>124075</v>
+        <v>89188</v>
       </c>
       <c r="G238" s="18">
-        <v>3101867</v>
+        <v>2229680</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6659,19 +6722,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="F239" s="18">
-        <v>73033</v>
+        <v>89188</v>
       </c>
       <c r="G239" s="18">
-        <v>1825843</v>
+        <v>2229680</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6682,19 +6745,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F240" s="18">
-        <v>124075</v>
+        <v>22093</v>
       </c>
       <c r="G240" s="18">
-        <v>3101867</v>
+        <v>2229680</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6705,19 +6768,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="F241" s="18">
-        <v>124075</v>
+        <v>77964</v>
       </c>
       <c r="G241" s="18">
-        <v>3101867</v>
+        <v>1949088</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6728,19 +6791,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F242" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G242" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6751,19 +6814,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F243" s="18">
-        <v>124075</v>
+        <v>71969</v>
       </c>
       <c r="G243" s="18">
-        <v>3101867</v>
+        <v>1890798</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6774,19 +6837,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="F244" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G244" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6797,19 +6860,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="F245" s="18">
-        <v>124075</v>
+        <v>71969</v>
       </c>
       <c r="G245" s="18">
-        <v>3101867</v>
+        <v>1890798</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6820,19 +6883,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="F246" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G246" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6843,19 +6906,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="F247" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G247" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6866,19 +6929,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="F248" s="18">
-        <v>124075</v>
+        <v>62373</v>
       </c>
       <c r="G248" s="18">
-        <v>3101867</v>
+        <v>1890798</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6889,19 +6952,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F249" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G249" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6912,19 +6975,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F250" s="18">
-        <v>124075</v>
+        <v>63640</v>
       </c>
       <c r="G250" s="18">
-        <v>3101867</v>
+        <v>1884669</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6935,19 +6998,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F251" s="18">
-        <v>124075</v>
+        <v>63640</v>
       </c>
       <c r="G251" s="18">
-        <v>3101867</v>
+        <v>1884669</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6958,19 +7021,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F252" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G252" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6981,19 +7044,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F253" s="18">
-        <v>124075</v>
+        <v>63640</v>
       </c>
       <c r="G253" s="18">
-        <v>3101867</v>
+        <v>1884669</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -7004,19 +7067,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F254" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G254" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -7027,19 +7090,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="F255" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G255" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -7050,19 +7113,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="F256" s="18">
-        <v>124075</v>
+        <v>63640</v>
       </c>
       <c r="G256" s="18">
-        <v>3101867</v>
+        <v>1884669</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -7073,19 +7136,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="F257" s="18">
-        <v>124075</v>
+        <v>40305</v>
       </c>
       <c r="G257" s="18">
-        <v>3101867</v>
+        <v>1884669</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -7096,19 +7159,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="F258" s="18">
-        <v>73033</v>
+        <v>2731</v>
       </c>
       <c r="G258" s="18">
-        <v>1825843</v>
+        <v>2048055</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -7119,19 +7182,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="F259" s="18">
-        <v>73033</v>
+        <v>81923</v>
       </c>
       <c r="G259" s="18">
-        <v>1825843</v>
+        <v>2048055</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -7142,19 +7205,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="F260" s="18">
-        <v>124075</v>
+        <v>69890</v>
       </c>
       <c r="G260" s="18">
-        <v>3101867</v>
+        <v>1747269</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -7165,19 +7228,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="F261" s="18">
-        <v>73033</v>
+        <v>2449</v>
       </c>
       <c r="G261" s="18">
-        <v>1825843</v>
+        <v>2077050</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7188,19 +7251,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F262" s="18">
-        <v>124075</v>
+        <v>81932</v>
       </c>
       <c r="G262" s="18">
-        <v>3101867</v>
+        <v>2048297</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7211,19 +7274,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F263" s="18">
-        <v>73033</v>
+        <v>4659</v>
       </c>
       <c r="G263" s="18">
-        <v>1825843</v>
+        <v>1836730</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7234,19 +7297,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="F264" s="18">
-        <v>124075</v>
+        <v>6989</v>
       </c>
       <c r="G264" s="18">
-        <v>3101867</v>
+        <v>1836730</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7257,19 +7320,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="F265" s="18">
-        <v>124075</v>
+        <v>150914</v>
       </c>
       <c r="G265" s="18">
-        <v>3101867</v>
+        <v>3772850</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7280,19 +7343,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="F266" s="18">
-        <v>46254</v>
+        <v>150914</v>
       </c>
       <c r="G266" s="18">
-        <v>1825843</v>
+        <v>3772850</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7303,19 +7366,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="F267" s="18">
-        <v>124075</v>
+        <v>150914</v>
       </c>
       <c r="G267" s="18">
-        <v>3101867</v>
+        <v>3772850</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7326,19 +7389,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="F268" s="18">
-        <v>73033</v>
+        <v>150914</v>
       </c>
       <c r="G268" s="18">
-        <v>1825843</v>
+        <v>3772850</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7349,19 +7412,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="F269" s="18">
-        <v>124075</v>
+        <v>150914</v>
       </c>
       <c r="G269" s="18">
-        <v>3101867</v>
+        <v>3772850</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7372,19 +7435,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="F270" s="18">
-        <v>73033</v>
+        <v>150914</v>
       </c>
       <c r="G270" s="18">
-        <v>1825843</v>
+        <v>3772850</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7395,19 +7458,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="F271" s="18">
-        <v>73033</v>
+        <v>150914</v>
       </c>
       <c r="G271" s="18">
-        <v>1825843</v>
+        <v>3772850</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7418,13 +7481,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="F272" s="18">
         <v>124075</v>
@@ -7441,13 +7504,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="F273" s="18">
         <v>124075</v>
@@ -7464,19 +7527,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="F274" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G274" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7487,19 +7550,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="F275" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G275" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7510,13 +7573,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="F276" s="18">
         <v>124075</v>
@@ -7533,13 +7596,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="F277" s="18">
         <v>124075</v>
@@ -7556,19 +7619,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="F278" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G278" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7579,19 +7642,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="F279" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G279" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7602,13 +7665,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="F280" s="18">
         <v>124075</v>
@@ -7625,19 +7688,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="F281" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G281" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7648,13 +7711,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="F282" s="18">
         <v>124075</v>
@@ -7671,19 +7734,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="F283" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G283" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7694,13 +7757,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="F284" s="18">
         <v>124075</v>
@@ -7717,13 +7780,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="F285" s="18">
         <v>124075</v>
@@ -7740,19 +7803,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="F286" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G286" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7763,13 +7826,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="F287" s="18">
         <v>124075</v>
@@ -7786,19 +7849,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="F288" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G288" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7809,13 +7872,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="F289" s="18">
         <v>124075</v>
@@ -7832,19 +7895,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="F290" s="18">
-        <v>89188</v>
+        <v>124075</v>
       </c>
       <c r="G290" s="18">
-        <v>1451106</v>
+        <v>3101867</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7855,19 +7918,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="F291" s="18">
-        <v>102766</v>
+        <v>124075</v>
       </c>
       <c r="G291" s="18">
-        <v>2569133</v>
+        <v>3101867</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7878,19 +7941,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="F292" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G292" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7901,19 +7964,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="F293" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G293" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7924,19 +7987,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="F294" s="18">
-        <v>89188</v>
+        <v>124075</v>
       </c>
       <c r="G294" s="18">
-        <v>1451106</v>
+        <v>3101867</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7947,19 +8010,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="F295" s="18">
-        <v>102766</v>
+        <v>124075</v>
       </c>
       <c r="G295" s="18">
-        <v>2569133</v>
+        <v>3101867</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7970,13 +8033,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="F296" s="18">
         <v>124075</v>
@@ -7993,19 +8056,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="F297" s="18">
-        <v>89188</v>
+        <v>124075</v>
       </c>
       <c r="G297" s="18">
-        <v>1451106</v>
+        <v>3101867</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -8016,13 +8079,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="F298" s="18">
         <v>124075</v>
@@ -8039,19 +8102,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="F299" s="18">
-        <v>93152</v>
+        <v>124075</v>
       </c>
       <c r="G299" s="18">
-        <v>2328818</v>
+        <v>3101867</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -8062,19 +8125,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="F300" s="18">
-        <v>95323</v>
+        <v>124075</v>
       </c>
       <c r="G300" s="18">
-        <v>4766134</v>
+        <v>3101867</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -8085,19 +8148,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="F301" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G301" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -8108,19 +8171,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="F302" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G302" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -8131,13 +8194,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="F303" s="18">
         <v>124075</v>
@@ -8154,19 +8217,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="F304" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G304" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8177,13 +8240,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="F305" s="18">
         <v>124075</v>
@@ -8200,19 +8263,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="F306" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G306" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8223,13 +8286,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="F307" s="18">
         <v>124075</v>
@@ -8246,19 +8309,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="F308" s="18">
-        <v>89188</v>
+        <v>124075</v>
       </c>
       <c r="G308" s="18">
-        <v>1451106</v>
+        <v>3101867</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8269,19 +8332,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="F309" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G309" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8292,19 +8355,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="F310" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G310" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8315,19 +8378,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="F311" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G311" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8338,19 +8401,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="F312" s="18">
-        <v>89188</v>
+        <v>124075</v>
       </c>
       <c r="G312" s="18">
-        <v>1451106</v>
+        <v>3101867</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8361,19 +8424,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="F313" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G313" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8384,13 +8447,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="F314" s="18">
         <v>124075</v>
@@ -8407,13 +8470,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="F315" s="18">
         <v>124075</v>
@@ -8430,19 +8493,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="F316" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G316" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8453,19 +8516,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="F317" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G317" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8476,19 +8539,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="F318" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G318" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8499,19 +8562,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="F319" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G319" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8522,13 +8585,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="F320" s="18">
         <v>124075</v>
@@ -8545,19 +8608,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="F321" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G321" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8568,13 +8631,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="F322" s="18">
         <v>124075</v>
@@ -8591,19 +8654,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="F323" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G323" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8614,19 +8677,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="F324" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G324" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8637,19 +8700,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="F325" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G325" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8660,13 +8723,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="F326" s="18">
         <v>124075</v>
@@ -8683,13 +8746,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="F327" s="18">
         <v>124075</v>
@@ -8706,75 +8769,857 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="F328" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G328" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
       <c r="J328" s="20"/>
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B329" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C329" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D329" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="E329" s="22" t="s">
+      <c r="B329" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D329" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E329" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F329" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G329" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H329" s="19"/>
+      <c r="I329" s="19"/>
+      <c r="J329" s="20"/>
+    </row>
+    <row r="330" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B330" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D330" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E330" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F330" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G330" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H330" s="19"/>
+      <c r="I330" s="19"/>
+      <c r="J330" s="20"/>
+    </row>
+    <row r="331" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B331" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D331" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E331" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F331" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G331" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H331" s="19"/>
+      <c r="I331" s="19"/>
+      <c r="J331" s="20"/>
+    </row>
+    <row r="332" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B332" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D332" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E332" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F332" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G332" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H332" s="19"/>
+      <c r="I332" s="19"/>
+      <c r="J332" s="20"/>
+    </row>
+    <row r="333" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B333" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D333" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E333" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F333" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G333" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H333" s="19"/>
+      <c r="I333" s="19"/>
+      <c r="J333" s="20"/>
+    </row>
+    <row r="334" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B334" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D334" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E334" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F334" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G334" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H334" s="19"/>
+      <c r="I334" s="19"/>
+      <c r="J334" s="20"/>
+    </row>
+    <row r="335" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B335" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D335" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F335" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G335" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H335" s="19"/>
+      <c r="I335" s="19"/>
+      <c r="J335" s="20"/>
+    </row>
+    <row r="336" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B336" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D336" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E336" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F336" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G336" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H336" s="19"/>
+      <c r="I336" s="19"/>
+      <c r="J336" s="20"/>
+    </row>
+    <row r="337" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B337" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D337" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E337" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F337" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G337" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H337" s="19"/>
+      <c r="I337" s="19"/>
+      <c r="J337" s="20"/>
+    </row>
+    <row r="338" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B338" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D338" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E338" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F338" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G338" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H338" s="19"/>
+      <c r="I338" s="19"/>
+      <c r="J338" s="20"/>
+    </row>
+    <row r="339" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B339" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D339" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E339" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F339" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G339" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H339" s="19"/>
+      <c r="I339" s="19"/>
+      <c r="J339" s="20"/>
+    </row>
+    <row r="340" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B340" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D340" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E340" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F340" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G340" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H340" s="19"/>
+      <c r="I340" s="19"/>
+      <c r="J340" s="20"/>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B341" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C341" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D341" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E341" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F341" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G341" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H341" s="19"/>
+      <c r="I341" s="19"/>
+      <c r="J341" s="20"/>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B342" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D342" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E342" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F342" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G342" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H342" s="19"/>
+      <c r="I342" s="19"/>
+      <c r="J342" s="20"/>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B343" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C343" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D343" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E343" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F343" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G343" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H343" s="19"/>
+      <c r="I343" s="19"/>
+      <c r="J343" s="20"/>
+    </row>
+    <row r="344" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B344" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D344" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E344" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F344" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G344" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H344" s="19"/>
+      <c r="I344" s="19"/>
+      <c r="J344" s="20"/>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B345" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D345" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E345" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F345" s="18">
+        <v>124075</v>
+      </c>
+      <c r="G345" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H345" s="19"/>
+      <c r="I345" s="19"/>
+      <c r="J345" s="20"/>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B346" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D346" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F346" s="18">
+        <v>124040</v>
+      </c>
+      <c r="G346" s="18">
+        <v>3101867</v>
+      </c>
+      <c r="H346" s="19"/>
+      <c r="I346" s="19"/>
+      <c r="J346" s="20"/>
+    </row>
+    <row r="347" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B347" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="F329" s="24">
+      <c r="D347" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E347" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F347" s="18">
+        <v>66880</v>
+      </c>
+      <c r="G347" s="18">
+        <v>2905284</v>
+      </c>
+      <c r="H347" s="19"/>
+      <c r="I347" s="19"/>
+      <c r="J347" s="20"/>
+    </row>
+    <row r="348" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B348" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C348" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D348" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E348" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F348" s="18">
+        <v>66880</v>
+      </c>
+      <c r="G348" s="18">
+        <v>2905284</v>
+      </c>
+      <c r="H348" s="19"/>
+      <c r="I348" s="19"/>
+      <c r="J348" s="20"/>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B349" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C349" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D349" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E349" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F349" s="18">
+        <v>66880</v>
+      </c>
+      <c r="G349" s="18">
+        <v>2905284</v>
+      </c>
+      <c r="H349" s="19"/>
+      <c r="I349" s="19"/>
+      <c r="J349" s="20"/>
+    </row>
+    <row r="350" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B350" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D350" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E350" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F350" s="18">
+        <v>66880</v>
+      </c>
+      <c r="G350" s="18">
+        <v>2905284</v>
+      </c>
+      <c r="H350" s="19"/>
+      <c r="I350" s="19"/>
+      <c r="J350" s="20"/>
+    </row>
+    <row r="351" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B351" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C351" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D351" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E351" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F351" s="18">
+        <v>66880</v>
+      </c>
+      <c r="G351" s="18">
+        <v>2905284</v>
+      </c>
+      <c r="H351" s="19"/>
+      <c r="I351" s="19"/>
+      <c r="J351" s="20"/>
+    </row>
+    <row r="352" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B352" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D352" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E352" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F352" s="18">
+        <v>132000</v>
+      </c>
+      <c r="G352" s="18">
+        <v>4766134</v>
+      </c>
+      <c r="H352" s="19"/>
+      <c r="I352" s="19"/>
+      <c r="J352" s="20"/>
+    </row>
+    <row r="353" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B353" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C353" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D353" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E353" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F353" s="18">
+        <v>20000</v>
+      </c>
+      <c r="G353" s="18">
+        <v>2721555</v>
+      </c>
+      <c r="H353" s="19"/>
+      <c r="I353" s="19"/>
+      <c r="J353" s="20"/>
+    </row>
+    <row r="354" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B354" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D354" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E354" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F354" s="18">
+        <v>59815</v>
+      </c>
+      <c r="G354" s="18">
+        <v>3291615</v>
+      </c>
+      <c r="H354" s="19"/>
+      <c r="I354" s="19"/>
+      <c r="J354" s="20"/>
+    </row>
+    <row r="355" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B355" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D355" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E355" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F355" s="18">
+        <v>102766</v>
+      </c>
+      <c r="G355" s="18">
+        <v>2569133</v>
+      </c>
+      <c r="H355" s="19"/>
+      <c r="I355" s="19"/>
+      <c r="J355" s="20"/>
+    </row>
+    <row r="356" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B356" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D356" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E356" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F356" s="18">
+        <v>95323</v>
+      </c>
+      <c r="G356" s="18">
+        <v>4766134</v>
+      </c>
+      <c r="H356" s="19"/>
+      <c r="I356" s="19"/>
+      <c r="J356" s="20"/>
+    </row>
+    <row r="357" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B357" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D357" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E357" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F357" s="18">
+        <v>46618</v>
+      </c>
+      <c r="G357" s="18">
+        <v>4766134</v>
+      </c>
+      <c r="H357" s="19"/>
+      <c r="I357" s="19"/>
+      <c r="J357" s="20"/>
+    </row>
+    <row r="358" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B358" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D358" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E358" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F358" s="18">
+        <v>322741</v>
+      </c>
+      <c r="G358" s="18">
+        <v>8654300</v>
+      </c>
+      <c r="H358" s="19"/>
+      <c r="I358" s="19"/>
+      <c r="J358" s="20"/>
+    </row>
+    <row r="359" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B359" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D359" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E359" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F359" s="18">
+        <v>93152</v>
+      </c>
+      <c r="G359" s="18">
+        <v>2328818</v>
+      </c>
+      <c r="H359" s="19"/>
+      <c r="I359" s="19"/>
+      <c r="J359" s="20"/>
+    </row>
+    <row r="360" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B360" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D360" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E360" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F360" s="18">
+        <v>93152</v>
+      </c>
+      <c r="G360" s="18">
+        <v>2328818</v>
+      </c>
+      <c r="H360" s="19"/>
+      <c r="I360" s="19"/>
+      <c r="J360" s="20"/>
+    </row>
+    <row r="361" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B361" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D361" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E361" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F361" s="18">
+        <v>125892</v>
+      </c>
+      <c r="G361" s="18">
+        <v>3147287</v>
+      </c>
+      <c r="H361" s="19"/>
+      <c r="I361" s="19"/>
+      <c r="J361" s="20"/>
+    </row>
+    <row r="362" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B362" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D362" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E362" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F362" s="18">
+        <v>102766</v>
+      </c>
+      <c r="G362" s="18">
+        <v>2569133</v>
+      </c>
+      <c r="H362" s="19"/>
+      <c r="I362" s="19"/>
+      <c r="J362" s="20"/>
+    </row>
+    <row r="363" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B363" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C363" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D363" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E363" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F363" s="24">
         <v>116212</v>
       </c>
-      <c r="G329" s="24">
+      <c r="G363" s="24">
         <v>2905284</v>
       </c>
-      <c r="H329" s="25"/>
-      <c r="I329" s="25"/>
-      <c r="J329" s="26"/>
-    </row>
-    <row r="334" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B334" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="C334" s="32"/>
-      <c r="H334" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I334" s="1"/>
-      <c r="J334" s="1"/>
-    </row>
-    <row r="335" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B335" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="C335" s="32"/>
-      <c r="H335" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I335" s="1"/>
-      <c r="J335" s="1"/>
+      <c r="H363" s="25"/>
+      <c r="I363" s="25"/>
+      <c r="J363" s="26"/>
+    </row>
+    <row r="368" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B368" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C368" s="32"/>
+      <c r="H368" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I368" s="1"/>
+      <c r="J368" s="1"/>
+    </row>
+    <row r="369" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B369" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C369" s="32"/>
+      <c r="H369" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I369" s="1"/>
+      <c r="J369" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="H335:J335"/>
-    <mergeCell ref="H334:J334"/>
+    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="H369:J369"/>
+    <mergeCell ref="H368:J368"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004772356.xlsx
+++ b/Data/EC/NIT-9004772356.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80F12436-388C-489E-BCF8-B6E6305341CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEF8387-F9C9-4103-A4B8-784900705EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DFC52552-3811-4F1A-BC7F-6E887E5B27E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F19BED18-0603-4030-88EE-9A31BEA8AFCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="200">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,150 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1084735542</t>
+  </si>
+  <si>
+    <t>ANDREA MARIA URIBE CAHUANA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1047377204</t>
+  </si>
+  <si>
+    <t>HERRERA AREVALO LEDIEN MARIAN</t>
+  </si>
+  <si>
+    <t>27103198</t>
+  </si>
+  <si>
+    <t>LUZ MARINA NOGUERA REALPE</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1070944074</t>
+  </si>
+  <si>
+    <t>LILIANA ANDREA VASQUEZ FORERO</t>
+  </si>
+  <si>
+    <t>1010195619</t>
+  </si>
+  <si>
+    <t>SANDY YOREDIS CANTILLO ROMERO</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1047403693</t>
+  </si>
+  <si>
+    <t>LUIS FERNADO OSPINO JAIME</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>72235980</t>
+  </si>
+  <si>
+    <t>JIMMY ANTHONY GOMEZ AFRICANO</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>12265849</t>
+  </si>
+  <si>
+    <t>FREDDY TOLEDO BERMEO</t>
+  </si>
+  <si>
+    <t>73115073</t>
+  </si>
+  <si>
+    <t>RAFAEL DARIO DE LA OSSA REYES</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>94510214</t>
+  </si>
+  <si>
+    <t>JULIAN ANDRES VILLALBA TABA</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>8713855</t>
+  </si>
+  <si>
+    <t>LEONIDAS MANUEL ALVAREZ PEREZ</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>37197678</t>
+  </si>
+  <si>
+    <t>NELLY BALLESTERO COMBARIZA</t>
+  </si>
+  <si>
     <t>30854132</t>
   </si>
   <si>
@@ -74,19 +218,343 @@
     <t>1807</t>
   </si>
   <si>
+    <t>1047369103</t>
+  </si>
+  <si>
+    <t>GINA CONCEPCION ANGULO MENDOZA</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1047439979</t>
+  </si>
+  <si>
+    <t>CLAUDIA MARGARITA CARRASQUILLA MIRANDA</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>45512802</t>
+  </si>
+  <si>
+    <t>ZOILA MARGARITA CASTRO HURTADO</t>
+  </si>
+  <si>
+    <t>1102830561</t>
+  </si>
+  <si>
+    <t>MARIA MARGARITA SIERRA ORTEGA</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>79596577</t>
+  </si>
+  <si>
+    <t>NESTOR CASTRO CASTANEDA</t>
+  </si>
+  <si>
+    <t>1143355397</t>
+  </si>
+  <si>
+    <t>YERLIS MILENA RAMOS TATIS</t>
+  </si>
+  <si>
+    <t>4427481</t>
+  </si>
+  <si>
+    <t>HERNANDO ZULUAGA GIRALDO</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>52799065</t>
+  </si>
+  <si>
+    <t>CAROLINA PERDIGON CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1105680281</t>
+  </si>
+  <si>
+    <t>EDWIN NEIL VELASQUEZ ROMERO</t>
+  </si>
+  <si>
     <t>1130587089</t>
   </si>
   <si>
     <t>ALEXANDER ZUÑIGA BERMUDEZ</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>53054085</t>
+  </si>
+  <si>
+    <t>DIANA MARCELA BUITRAGO MEDINA</t>
+  </si>
+  <si>
+    <t>77103219</t>
+  </si>
+  <si>
+    <t>EDGAR AUGUSTO OLIVELLA MAESTRE</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>22464885</t>
+  </si>
+  <si>
+    <t>HEYDI PATRICIA QUINTERO SANTAMARIA</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>79713872</t>
+  </si>
+  <si>
+    <t>LEONARDO HERNANDEZ AGUIRRE</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>6646218</t>
+  </si>
+  <si>
+    <t>OSCAR JULIAN HOLGUIN RUBIANO</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>1143362482</t>
+  </si>
+  <si>
+    <t>GIOVANNY JOSE CASTILLO SAENZ</t>
+  </si>
+  <si>
+    <t>40035810</t>
+  </si>
+  <si>
+    <t>SANDRA ROCIO RODRIGUEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>73140604</t>
+  </si>
+  <si>
+    <t>EFRAIN HERRERA TORRES</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>79388742</t>
+  </si>
+  <si>
+    <t>WILSON PATIÑO SANCHEZ</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>1143396368</t>
+  </si>
+  <si>
+    <t>MARGARITA BARRIOS CARMONA</t>
+  </si>
+  <si>
+    <t>2408</t>
   </si>
   <si>
     <t>45498399</t>
@@ -98,568 +566,43 @@
     <t>2409</t>
   </si>
   <si>
-    <t>73115073</t>
-  </si>
-  <si>
-    <t>RAFAEL DARIO DE LA OSSA REYES</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1047369103</t>
-  </si>
-  <si>
-    <t>GINA CONCEPCION ANGULO MENDOZA</t>
-  </si>
-  <si>
-    <t>73140604</t>
-  </si>
-  <si>
-    <t>EFRAIN HERRERA TORRES</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>72235980</t>
-  </si>
-  <si>
-    <t>JIMMY ANTHONY GOMEZ AFRICANO</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1010195619</t>
-  </si>
-  <si>
-    <t>SANDY YOREDIS CANTILLO ROMERO</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>32909337</t>
-  </si>
-  <si>
-    <t>LUZ MARINA ARIAS RODELO</t>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>11806390</t>
+  </si>
+  <si>
+    <t>ENDIR ESLIK HURTADO RIVAS</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
   </si>
   <si>
     <t>2503</t>
   </si>
   <si>
-    <t>1084735542</t>
-  </si>
-  <si>
-    <t>ANDREA MARIA URIBE CAHUANA</t>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>79596577</t>
-  </si>
-  <si>
-    <t>NESTOR CASTRO CASTANEDA</t>
-  </si>
-  <si>
-    <t>45767005</t>
-  </si>
-  <si>
-    <t>ILSA VIRGINIA FAJARDO CASTANEZ</t>
-  </si>
-  <si>
-    <t>11806390</t>
-  </si>
-  <si>
-    <t>ENDIR ESLIK HURTADO RIVAS</t>
-  </si>
-  <si>
-    <t>1047377204</t>
-  </si>
-  <si>
-    <t>HERRERA AREVALO LEDIEN MARIAN</t>
-  </si>
-  <si>
-    <t>27103198</t>
-  </si>
-  <si>
-    <t>LUZ MARINA NOGUERA REALPE</t>
-  </si>
-  <si>
-    <t>1047439979</t>
-  </si>
-  <si>
-    <t>CLAUDIA MARGARITA CARRASQUILLA MIRANDA</t>
-  </si>
-  <si>
-    <t>1047474882</t>
-  </si>
-  <si>
-    <t>MARIA ALEJANDRA GONZALEZ TATIS</t>
-  </si>
-  <si>
-    <t>1070944074</t>
-  </si>
-  <si>
-    <t>LILIANA ANDREA VASQUEZ FORERO</t>
-  </si>
-  <si>
-    <t>1143362482</t>
-  </si>
-  <si>
-    <t>GIOVANNY JOSE CASTILLO SAENZ</t>
-  </si>
-  <si>
-    <t>1143375135</t>
-  </si>
-  <si>
-    <t>NATALIE MICHELLE ZULUAGA CERVANTES</t>
-  </si>
-  <si>
-    <t>1143396368</t>
-  </si>
-  <si>
-    <t>MARGARITA BARRIOS CARMONA</t>
-  </si>
-  <si>
-    <t>1047403693</t>
-  </si>
-  <si>
-    <t>LUIS FERNADO OSPINO JAIME</t>
-  </si>
-  <si>
-    <t>37197678</t>
-  </si>
-  <si>
-    <t>NELLY BALLESTERO COMBARIZA</t>
-  </si>
-  <si>
-    <t>12265849</t>
-  </si>
-  <si>
-    <t>FREDDY TOLEDO BERMEO</t>
-  </si>
-  <si>
-    <t>94510214</t>
-  </si>
-  <si>
-    <t>JULIAN ANDRES VILLALBA TABA</t>
-  </si>
-  <si>
-    <t>8713855</t>
-  </si>
-  <si>
-    <t>LEONIDAS MANUEL ALVAREZ PEREZ</t>
-  </si>
-  <si>
-    <t>52799065</t>
-  </si>
-  <si>
-    <t>CAROLINA PERDIGON CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>1105680281</t>
-  </si>
-  <si>
-    <t>EDWIN NEIL VELASQUEZ ROMERO</t>
-  </si>
-  <si>
-    <t>6646218</t>
-  </si>
-  <si>
-    <t>OSCAR JULIAN HOLGUIN RUBIANO</t>
-  </si>
-  <si>
-    <t>45512802</t>
-  </si>
-  <si>
-    <t>ZOILA MARGARITA CASTRO HURTADO</t>
-  </si>
-  <si>
-    <t>53054085</t>
-  </si>
-  <si>
-    <t>DIANA MARCELA BUITRAGO MEDINA</t>
-  </si>
-  <si>
-    <t>77103219</t>
-  </si>
-  <si>
-    <t>EDGAR AUGUSTO OLIVELLA MAESTRE</t>
-  </si>
-  <si>
-    <t>29819263</t>
-  </si>
-  <si>
-    <t>CLAUDIA PATRICIA ZULUAGA OLMOS</t>
-  </si>
-  <si>
-    <t>1102830561</t>
-  </si>
-  <si>
-    <t>MARIA MARGARITA SIERRA ORTEGA</t>
-  </si>
-  <si>
-    <t>1143355397</t>
-  </si>
-  <si>
-    <t>YERLIS MILENA RAMOS TATIS</t>
-  </si>
-  <si>
-    <t>4427481</t>
-  </si>
-  <si>
-    <t>HERNANDO ZULUAGA GIRALDO</t>
-  </si>
-  <si>
-    <t>22464885</t>
-  </si>
-  <si>
-    <t>HEYDI PATRICIA QUINTERO SANTAMARIA</t>
-  </si>
-  <si>
-    <t>79713872</t>
-  </si>
-  <si>
-    <t>LEONARDO HERNANDEZ AGUIRRE</t>
-  </si>
-  <si>
-    <t>1143369312</t>
-  </si>
-  <si>
-    <t>KEINNY DE JESUS LOPEZ CARRASQUILLA</t>
-  </si>
-  <si>
-    <t>40035810</t>
-  </si>
-  <si>
-    <t>SANDRA ROCIO RODRIGUEZ LOPEZ</t>
-  </si>
-  <si>
-    <t>79388742</t>
-  </si>
-  <si>
-    <t>WILSON PATIÑO SANCHEZ</t>
-  </si>
-  <si>
-    <t>79514277</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS JAUREGUI BUENAVENTURA</t>
-  </si>
-  <si>
-    <t>24713561</t>
-  </si>
-  <si>
-    <t>MONICA MARTINEZ CHAVEZ</t>
-  </si>
-  <si>
-    <t>1053007279</t>
-  </si>
-  <si>
-    <t>ALINA MARCELA MERCADO CORRERA</t>
-  </si>
-  <si>
-    <t>1007280069</t>
-  </si>
-  <si>
-    <t>SEBASTIAN JOSE HERNANDEZ HERNANDEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -758,7 +701,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -771,9 +716,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -973,23 +916,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,10 +960,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,7 +1016,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE260EDA-9E5D-C1FD-AF92-68B932607166}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B01A40-51F7-806C-A49D-1DBC3AD477B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,8 +1367,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050656EF-5A12-4F8F-9742-FE984DFF1603}">
-  <dimension ref="B2:J369"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA11DCB-7C88-445A-B1EB-A57C9110EBE9}">
+  <dimension ref="B2:J341"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1449,7 +1392,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1494,7 +1437,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1526,12 +1469,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>30381432</v>
+        <v>27098528</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1542,17 +1485,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C13" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1579,13 +1522,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1602,10 +1545,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35669</v>
+        <v>73033</v>
       </c>
       <c r="G16" s="18">
-        <v>1836730</v>
+        <v>1825843</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1622,13 +1565,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>103560</v>
+        <v>67418</v>
       </c>
       <c r="G17" s="18">
-        <v>2721555</v>
+        <v>1685449</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1639,19 +1582,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>103560</v>
+        <v>41042</v>
       </c>
       <c r="G18" s="18">
-        <v>2721555</v>
+        <v>1026063</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1662,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>103560</v>
+        <v>73033</v>
       </c>
       <c r="G19" s="18">
-        <v>2721555</v>
+        <v>1825843</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1685,19 +1628,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>93152</v>
+        <v>67418</v>
       </c>
       <c r="G20" s="18">
-        <v>2328818</v>
+        <v>1685449</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1708,19 +1651,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>71969</v>
+        <v>41042</v>
       </c>
       <c r="G21" s="18">
-        <v>2905284</v>
+        <v>1026063</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1731,19 +1674,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G22" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1754,19 +1697,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>81932</v>
+        <v>67418</v>
       </c>
       <c r="G23" s="18">
-        <v>2048297</v>
+        <v>1685449</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1777,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>92352</v>
+        <v>41042</v>
       </c>
       <c r="G24" s="18">
-        <v>2798005</v>
+        <v>1026063</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1800,19 +1743,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>59617</v>
       </c>
       <c r="G25" s="18">
-        <v>1490437</v>
+        <v>3367598</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1823,19 +1766,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G26" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1846,19 +1789,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G27" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1869,19 +1812,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>59617</v>
+        <v>67418</v>
       </c>
       <c r="G28" s="18">
-        <v>1490437</v>
+        <v>1685449</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1892,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>59617</v>
+        <v>41042</v>
       </c>
       <c r="G29" s="18">
-        <v>1490437</v>
+        <v>1026063</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1915,19 +1858,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F30" s="18">
-        <v>59617</v>
+        <v>34082</v>
       </c>
       <c r="G30" s="18">
-        <v>1490437</v>
+        <v>2250064</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1938,19 +1881,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G31" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1961,19 +1904,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>59617</v>
+        <v>73033</v>
       </c>
       <c r="G32" s="18">
-        <v>1490437</v>
+        <v>1825843</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1984,19 +1927,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
-        <v>59617</v>
+        <v>67418</v>
       </c>
       <c r="G33" s="18">
-        <v>1490437</v>
+        <v>1685449</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -2007,19 +1950,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
-        <v>59617</v>
+        <v>41042</v>
       </c>
       <c r="G34" s="18">
-        <v>1490437</v>
+        <v>1026063</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -2030,13 +1973,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>73033</v>
@@ -2053,13 +1996,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
         <v>73033</v>
@@ -2076,19 +2019,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G37" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -2099,19 +2042,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G38" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -2122,19 +2065,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G39" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -2145,13 +2088,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
         <v>73033</v>
@@ -2168,13 +2111,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
         <v>73033</v>
@@ -2191,19 +2134,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G42" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2214,19 +2157,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G43" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2237,19 +2180,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F44" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G44" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2260,13 +2203,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F45" s="18">
         <v>73033</v>
@@ -2283,13 +2226,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F46" s="18">
         <v>73033</v>
@@ -2306,19 +2249,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G47" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2329,19 +2272,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G48" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2352,19 +2295,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F49" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G49" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2375,13 +2318,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
         <v>73033</v>
@@ -2398,19 +2341,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
-        <v>3426</v>
+        <v>73033</v>
       </c>
       <c r="G51" s="18">
-        <v>2569133</v>
+        <v>1825843</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2421,19 +2364,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G52" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2444,19 +2387,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G53" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2467,19 +2410,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G54" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2490,13 +2433,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
         <v>73033</v>
@@ -2513,13 +2456,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F56" s="18">
         <v>73033</v>
@@ -2536,19 +2479,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F57" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G57" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2559,19 +2502,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F58" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G58" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2582,19 +2525,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F59" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G59" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2605,13 +2548,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F60" s="18">
         <v>73033</v>
@@ -2628,13 +2571,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F61" s="18">
         <v>73033</v>
@@ -2651,19 +2594,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F62" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G62" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2674,19 +2617,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F63" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G63" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2697,19 +2640,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F64" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G64" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2720,13 +2663,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F65" s="18">
         <v>73033</v>
@@ -2743,13 +2686,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F66" s="18">
         <v>73033</v>
@@ -2766,19 +2709,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F67" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G67" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2789,19 +2732,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F68" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G68" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2812,19 +2755,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F69" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G69" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2835,13 +2778,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F70" s="18">
         <v>73033</v>
@@ -2858,13 +2801,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F71" s="18">
         <v>73033</v>
@@ -2881,19 +2824,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F72" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G72" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2904,19 +2847,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F73" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G73" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2927,19 +2870,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F74" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G74" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2950,13 +2893,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F75" s="18">
         <v>73033</v>
@@ -2973,16 +2916,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F76" s="18">
-        <v>46254</v>
+        <v>73033</v>
       </c>
       <c r="G76" s="18">
         <v>1825843</v>
@@ -2996,19 +2939,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F77" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G77" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -3019,19 +2962,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F78" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G78" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -3042,19 +2985,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F79" s="18">
-        <v>73033</v>
+        <v>77964</v>
       </c>
       <c r="G79" s="18">
-        <v>1825843</v>
+        <v>1949088</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -3065,19 +3008,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F80" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G80" s="18">
-        <v>1825843</v>
+        <v>3108654</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -3088,19 +3031,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="F81" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G81" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -3111,13 +3054,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F82" s="18">
         <v>73033</v>
@@ -3134,13 +3077,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="F83" s="18">
         <v>73033</v>
@@ -3157,19 +3100,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F84" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G84" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -3180,19 +3123,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F85" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G85" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -3203,19 +3146,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="F86" s="18">
-        <v>73033</v>
+        <v>62373</v>
       </c>
       <c r="G86" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3226,19 +3169,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F87" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G87" s="18">
-        <v>1825843</v>
+        <v>3108654</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3249,19 +3192,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="F88" s="18">
-        <v>73033</v>
+        <v>59617</v>
       </c>
       <c r="G88" s="18">
-        <v>1825843</v>
+        <v>1490437</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3272,13 +3215,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="F89" s="18">
         <v>73033</v>
@@ -3295,13 +3238,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F90" s="18">
         <v>73033</v>
@@ -3318,19 +3261,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F91" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G91" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3341,19 +3284,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F92" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G92" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3364,19 +3307,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F93" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G93" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3387,13 +3330,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F94" s="18">
         <v>73033</v>
@@ -3410,13 +3353,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F95" s="18">
         <v>73033</v>
@@ -3433,19 +3376,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="F96" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G96" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3456,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F97" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G97" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3479,19 +3422,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="F98" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G98" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3502,13 +3445,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F99" s="18">
         <v>73033</v>
@@ -3525,13 +3468,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="F100" s="18">
         <v>73033</v>
@@ -3548,19 +3491,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F101" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G101" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3571,19 +3514,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="F102" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G102" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3594,19 +3537,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F103" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G103" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3617,19 +3560,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="F104" s="18">
-        <v>73033</v>
+        <v>40305</v>
       </c>
       <c r="G104" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3640,13 +3583,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="F105" s="18">
         <v>73033</v>
@@ -3663,13 +3606,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="F106" s="18">
         <v>73033</v>
@@ -3686,19 +3629,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="F107" s="18">
-        <v>73033</v>
+        <v>67418</v>
       </c>
       <c r="G107" s="18">
-        <v>1825843</v>
+        <v>1685449</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3709,19 +3652,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F108" s="18">
-        <v>73033</v>
+        <v>41042</v>
       </c>
       <c r="G108" s="18">
-        <v>1825843</v>
+        <v>1026063</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3732,19 +3675,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="F109" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G109" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3755,19 +3698,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F110" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G110" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3778,13 +3721,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="F111" s="18">
         <v>73033</v>
@@ -3801,19 +3744,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D112" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="F112" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G112" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3824,19 +3767,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D113" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="F113" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G113" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3847,13 +3790,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="F114" s="18">
         <v>73033</v>
@@ -3870,19 +3813,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D115" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E115" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F115" s="18">
-        <v>73033</v>
+        <v>71969</v>
       </c>
       <c r="G115" s="18">
-        <v>1825843</v>
+        <v>1890798</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3893,19 +3836,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D116" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E116" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E116" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F116" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G116" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3916,13 +3859,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F117" s="18">
         <v>73033</v>
@@ -3939,19 +3882,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="F118" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G118" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3962,13 +3905,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="F119" s="18">
         <v>73033</v>
@@ -3985,19 +3928,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="F120" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G120" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -4008,13 +3951,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="F121" s="18">
         <v>73033</v>
@@ -4031,19 +3974,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="F122" s="18">
-        <v>73033</v>
+        <v>22093</v>
       </c>
       <c r="G122" s="18">
-        <v>1825843</v>
+        <v>2229680</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -4054,19 +3997,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="F123" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G123" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -4077,19 +4020,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="F124" s="18">
-        <v>73033</v>
+        <v>35669</v>
       </c>
       <c r="G124" s="18">
-        <v>1825843</v>
+        <v>1836730</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -4100,19 +4043,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="F125" s="18">
-        <v>73033</v>
+        <v>81932</v>
       </c>
       <c r="G125" s="18">
-        <v>1825843</v>
+        <v>1949088</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -4123,13 +4066,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="F126" s="18">
         <v>73033</v>
@@ -4146,19 +4089,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="F127" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G127" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -4169,13 +4112,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="F128" s="18">
         <v>73033</v>
@@ -4192,19 +4135,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="F129" s="18">
-        <v>73033</v>
+        <v>70921</v>
       </c>
       <c r="G129" s="18">
-        <v>1825843</v>
+        <v>2457013</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4215,19 +4158,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="F130" s="18">
-        <v>73033</v>
+        <v>63640</v>
       </c>
       <c r="G130" s="18">
-        <v>1825843</v>
+        <v>1884669</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4238,13 +4181,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="F131" s="18">
         <v>73033</v>
@@ -4261,13 +4204,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="F132" s="18">
         <v>73033</v>
@@ -4284,13 +4227,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="F133" s="18">
         <v>73033</v>
@@ -4307,13 +4250,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="F134" s="18">
         <v>73033</v>
@@ -4330,13 +4273,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="F135" s="18">
         <v>73033</v>
@@ -4353,13 +4296,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F136" s="18">
         <v>73033</v>
@@ -4376,13 +4319,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F137" s="18">
         <v>73033</v>
@@ -4399,13 +4342,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="F138" s="18">
         <v>73033</v>
@@ -4422,19 +4365,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="F139" s="18">
-        <v>73033</v>
+        <v>81932</v>
       </c>
       <c r="G139" s="18">
-        <v>1825843</v>
+        <v>3367598</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4445,19 +4388,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="F140" s="18">
-        <v>73033</v>
+        <v>124040</v>
       </c>
       <c r="G140" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4468,13 +4411,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="F141" s="18">
         <v>73033</v>
@@ -4491,13 +4434,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F142" s="18">
         <v>73033</v>
@@ -4514,19 +4457,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F143" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G143" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4537,13 +4480,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F144" s="18">
         <v>73033</v>
@@ -4560,19 +4503,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F145" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G145" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4583,13 +4526,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F146" s="18">
         <v>73033</v>
@@ -4606,19 +4549,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="F147" s="18">
-        <v>73033</v>
+        <v>299212</v>
       </c>
       <c r="G147" s="18">
-        <v>1825843</v>
+        <v>7480301</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4629,19 +4572,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F148" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G148" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4652,19 +4595,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F149" s="18">
-        <v>73033</v>
+        <v>66880</v>
       </c>
       <c r="G149" s="18">
-        <v>1825843</v>
+        <v>3108654</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4675,19 +4618,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F150" s="18">
-        <v>73033</v>
+        <v>132000</v>
       </c>
       <c r="G150" s="18">
-        <v>1825843</v>
+        <v>5099764</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4698,13 +4641,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F151" s="18">
         <v>73033</v>
@@ -4721,19 +4664,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="F152" s="18">
-        <v>73033</v>
+        <v>299212</v>
       </c>
       <c r="G152" s="18">
-        <v>1825843</v>
+        <v>7480301</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4744,19 +4687,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F153" s="18">
-        <v>73033</v>
+        <v>81923</v>
       </c>
       <c r="G153" s="18">
-        <v>1825843</v>
+        <v>2048055</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4767,19 +4710,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="F154" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G154" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4790,19 +4733,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F155" s="18">
-        <v>73033</v>
+        <v>66880</v>
       </c>
       <c r="G155" s="18">
-        <v>1825843</v>
+        <v>3108654</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4813,13 +4756,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F156" s="18">
         <v>73033</v>
@@ -4836,19 +4779,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F157" s="18">
-        <v>73033</v>
+        <v>19947</v>
       </c>
       <c r="G157" s="18">
-        <v>1825843</v>
+        <v>7480301</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4859,19 +4802,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="F158" s="18">
-        <v>73033</v>
+        <v>2731</v>
       </c>
       <c r="G158" s="18">
-        <v>1825843</v>
+        <v>2048055</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4882,19 +4825,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="F159" s="18">
-        <v>73033</v>
+        <v>124075</v>
       </c>
       <c r="G159" s="18">
-        <v>1825843</v>
+        <v>3101867</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4905,19 +4848,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F160" s="18">
-        <v>73033</v>
+        <v>66880</v>
       </c>
       <c r="G160" s="18">
-        <v>1825843</v>
+        <v>3108654</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4928,19 +4871,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F161" s="18">
-        <v>19947</v>
+        <v>73033</v>
       </c>
       <c r="G161" s="18">
-        <v>7480301</v>
+        <v>1825843</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4951,19 +4894,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F162" s="18">
-        <v>299212</v>
+        <v>124075</v>
       </c>
       <c r="G162" s="18">
-        <v>7480301</v>
+        <v>3101867</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4974,19 +4917,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="F163" s="18">
-        <v>299212</v>
+        <v>66880</v>
       </c>
       <c r="G163" s="18">
-        <v>7480301</v>
+        <v>3108654</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4997,19 +4940,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F164" s="18">
-        <v>116212</v>
+        <v>73033</v>
       </c>
       <c r="G164" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -5020,19 +4963,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F165" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G165" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -5043,19 +4986,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F166" s="18">
-        <v>116212</v>
+        <v>66880</v>
       </c>
       <c r="G166" s="18">
-        <v>2905284</v>
+        <v>3108654</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -5066,19 +5009,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F167" s="18">
-        <v>116212</v>
+        <v>73033</v>
       </c>
       <c r="G167" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -5089,19 +5032,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="F168" s="18">
-        <v>116212</v>
+        <v>69890</v>
       </c>
       <c r="G168" s="18">
-        <v>2905284</v>
+        <v>1747269</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -5112,19 +5055,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F169" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G169" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -5135,19 +5078,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="F170" s="18">
-        <v>116212</v>
+        <v>103560</v>
       </c>
       <c r="G170" s="18">
-        <v>2905284</v>
+        <v>2792588</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -5158,19 +5101,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F171" s="18">
-        <v>116212</v>
+        <v>73033</v>
       </c>
       <c r="G171" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -5181,19 +5124,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F172" s="18">
-        <v>116212</v>
+        <v>4659</v>
       </c>
       <c r="G172" s="18">
-        <v>2905284</v>
+        <v>1747269</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -5204,19 +5147,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F173" s="18">
-        <v>116212</v>
+        <v>6989</v>
       </c>
       <c r="G173" s="18">
-        <v>2905284</v>
+        <v>1747269</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -5227,19 +5170,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F174" s="18">
-        <v>67418</v>
+        <v>124075</v>
       </c>
       <c r="G174" s="18">
-        <v>1685449</v>
+        <v>3101867</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5250,19 +5193,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F175" s="18">
-        <v>67418</v>
+        <v>103560</v>
       </c>
       <c r="G175" s="18">
-        <v>1685449</v>
+        <v>2792588</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5273,19 +5216,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F176" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G176" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5296,19 +5239,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F177" s="18">
-        <v>67418</v>
+        <v>124075</v>
       </c>
       <c r="G177" s="18">
-        <v>1685449</v>
+        <v>3101867</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5319,19 +5262,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="F178" s="18">
-        <v>67418</v>
+        <v>103560</v>
       </c>
       <c r="G178" s="18">
-        <v>1685449</v>
+        <v>2792588</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5342,19 +5285,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="F179" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G179" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5365,19 +5308,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="F180" s="18">
-        <v>67418</v>
+        <v>124075</v>
       </c>
       <c r="G180" s="18">
-        <v>1685449</v>
+        <v>3101867</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5388,19 +5331,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="F181" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G181" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5411,19 +5354,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="F182" s="18">
-        <v>67418</v>
+        <v>124075</v>
       </c>
       <c r="G182" s="18">
-        <v>1685449</v>
+        <v>3101867</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5434,19 +5377,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="F183" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G183" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5457,19 +5400,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="F184" s="18">
-        <v>67418</v>
+        <v>124075</v>
       </c>
       <c r="G184" s="18">
-        <v>1685449</v>
+        <v>3101867</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5480,19 +5423,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="F185" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G185" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5503,19 +5446,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="F186" s="18">
-        <v>67418</v>
+        <v>124075</v>
       </c>
       <c r="G186" s="18">
-        <v>1685449</v>
+        <v>3101867</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5526,19 +5469,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F187" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G187" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5549,19 +5492,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F188" s="18">
-        <v>67418</v>
+        <v>124075</v>
       </c>
       <c r="G188" s="18">
-        <v>1685449</v>
+        <v>3101867</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5572,19 +5515,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="F189" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G189" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5595,19 +5538,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F190" s="18">
-        <v>67418</v>
+        <v>124075</v>
       </c>
       <c r="G190" s="18">
-        <v>1685449</v>
+        <v>3101867</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5618,19 +5561,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="F191" s="18">
-        <v>67418</v>
+        <v>20000</v>
       </c>
       <c r="G191" s="18">
-        <v>1685449</v>
+        <v>2500000</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5641,19 +5584,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F192" s="18">
-        <v>67418</v>
+        <v>73033</v>
       </c>
       <c r="G192" s="18">
-        <v>1685449</v>
+        <v>1825843</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5664,19 +5607,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F193" s="18">
-        <v>41042</v>
+        <v>124075</v>
       </c>
       <c r="G193" s="18">
-        <v>1026063</v>
+        <v>3101867</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5687,19 +5630,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="F194" s="18">
-        <v>41042</v>
+        <v>59815</v>
       </c>
       <c r="G194" s="18">
-        <v>1026063</v>
+        <v>3291615</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5710,19 +5653,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F195" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G195" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5733,19 +5676,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F196" s="18">
-        <v>41042</v>
+        <v>124075</v>
       </c>
       <c r="G196" s="18">
-        <v>1026063</v>
+        <v>3101867</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5756,19 +5699,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F197" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G197" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5779,19 +5722,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F198" s="18">
-        <v>41042</v>
+        <v>124075</v>
       </c>
       <c r="G198" s="18">
-        <v>1026063</v>
+        <v>3101867</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5802,19 +5745,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="F199" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G199" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5825,19 +5768,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="F200" s="18">
-        <v>41042</v>
+        <v>124075</v>
       </c>
       <c r="G200" s="18">
-        <v>1026063</v>
+        <v>3101867</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5848,19 +5791,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="F201" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G201" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5871,19 +5814,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F202" s="18">
-        <v>41042</v>
+        <v>124075</v>
       </c>
       <c r="G202" s="18">
-        <v>1026063</v>
+        <v>3101867</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5894,19 +5837,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="F203" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G203" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5917,19 +5860,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="F204" s="18">
-        <v>41042</v>
+        <v>2449</v>
       </c>
       <c r="G204" s="18">
-        <v>1026063</v>
+        <v>1836730</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5940,19 +5883,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F205" s="18">
-        <v>41042</v>
+        <v>124075</v>
       </c>
       <c r="G205" s="18">
-        <v>1026063</v>
+        <v>3101867</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5963,19 +5906,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="F206" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G206" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5986,19 +5929,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F207" s="18">
-        <v>41042</v>
+        <v>124075</v>
       </c>
       <c r="G207" s="18">
-        <v>1026063</v>
+        <v>3101867</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -6009,19 +5952,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="F208" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G208" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -6032,19 +5975,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F209" s="18">
-        <v>41042</v>
+        <v>124075</v>
       </c>
       <c r="G209" s="18">
-        <v>1026063</v>
+        <v>3101867</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -6055,19 +5998,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F210" s="18">
-        <v>41042</v>
+        <v>73033</v>
       </c>
       <c r="G210" s="18">
-        <v>1026063</v>
+        <v>1825843</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -6078,19 +6021,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F211" s="18">
-        <v>41042</v>
+        <v>124075</v>
       </c>
       <c r="G211" s="18">
-        <v>1026063</v>
+        <v>3101867</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -6101,19 +6044,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F212" s="18">
-        <v>70921</v>
+        <v>73033</v>
       </c>
       <c r="G212" s="18">
-        <v>1773036</v>
+        <v>1825843</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -6124,19 +6067,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="F213" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G213" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -6147,19 +6090,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="F214" s="18">
-        <v>116212</v>
+        <v>73033</v>
       </c>
       <c r="G214" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -6170,19 +6113,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F215" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G215" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -6193,19 +6136,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="F216" s="18">
-        <v>116212</v>
+        <v>73033</v>
       </c>
       <c r="G216" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -6216,19 +6159,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="F217" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G217" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6239,19 +6182,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="F218" s="18">
-        <v>116212</v>
+        <v>73033</v>
       </c>
       <c r="G218" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6262,19 +6205,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="F219" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G219" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6285,19 +6228,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F220" s="18">
-        <v>116212</v>
+        <v>73033</v>
       </c>
       <c r="G220" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6308,19 +6251,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="F221" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G221" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6331,19 +6274,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F222" s="18">
-        <v>116212</v>
+        <v>73033</v>
       </c>
       <c r="G222" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6354,19 +6297,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F223" s="18">
-        <v>116212</v>
+        <v>124075</v>
       </c>
       <c r="G223" s="18">
-        <v>2905284</v>
+        <v>3101867</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6377,19 +6320,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="F224" s="18">
-        <v>116212</v>
+        <v>73033</v>
       </c>
       <c r="G224" s="18">
-        <v>2905284</v>
+        <v>1825843</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6400,19 +6343,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="F225" s="18">
-        <v>116212</v>
+        <v>18000</v>
       </c>
       <c r="G225" s="18">
-        <v>2905284</v>
+        <v>2250064</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6423,19 +6366,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F226" s="18">
-        <v>59617</v>
+        <v>124075</v>
       </c>
       <c r="G226" s="18">
-        <v>3147287</v>
+        <v>3101867</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6446,19 +6389,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="F227" s="18">
-        <v>59129</v>
+        <v>73033</v>
       </c>
       <c r="G227" s="18">
-        <v>4310846</v>
+        <v>1825843</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6469,19 +6412,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="F228" s="18">
-        <v>93152</v>
+        <v>59129</v>
       </c>
       <c r="G228" s="18">
-        <v>2328818</v>
+        <v>4612606</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6492,19 +6435,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="F229" s="18">
-        <v>93152</v>
+        <v>124075</v>
       </c>
       <c r="G229" s="18">
-        <v>2328818</v>
+        <v>3101867</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6515,19 +6458,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="F230" s="18">
-        <v>102766</v>
+        <v>46618</v>
       </c>
       <c r="G230" s="18">
-        <v>2569133</v>
+        <v>4766134</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6538,19 +6481,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="F231" s="18">
-        <v>102766</v>
+        <v>73033</v>
       </c>
       <c r="G231" s="18">
-        <v>2569133</v>
+        <v>1825843</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6561,19 +6504,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="F232" s="18">
-        <v>18000</v>
+        <v>124075</v>
       </c>
       <c r="G232" s="18">
-        <v>2308791</v>
+        <v>3101867</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6584,19 +6527,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="F233" s="18">
-        <v>34082</v>
+        <v>92352</v>
       </c>
       <c r="G233" s="18">
-        <v>2308791</v>
+        <v>3804925</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6607,19 +6550,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="F234" s="18">
-        <v>89188</v>
+        <v>73033</v>
       </c>
       <c r="G234" s="18">
-        <v>2229680</v>
+        <v>1825843</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6630,19 +6573,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="F235" s="18">
-        <v>89188</v>
+        <v>124075</v>
       </c>
       <c r="G235" s="18">
-        <v>2229680</v>
+        <v>3101867</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6653,19 +6596,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F236" s="18">
-        <v>89188</v>
+        <v>322741</v>
       </c>
       <c r="G236" s="18">
-        <v>2229680</v>
+        <v>8068525</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6676,19 +6619,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="F237" s="18">
-        <v>89188</v>
+        <v>73033</v>
       </c>
       <c r="G237" s="18">
-        <v>2229680</v>
+        <v>1825843</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6699,19 +6642,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="F238" s="18">
-        <v>89188</v>
+        <v>124075</v>
       </c>
       <c r="G238" s="18">
-        <v>2229680</v>
+        <v>3101867</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6722,19 +6665,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F239" s="18">
-        <v>89188</v>
+        <v>73033</v>
       </c>
       <c r="G239" s="18">
-        <v>2229680</v>
+        <v>1825843</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6745,19 +6688,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F240" s="18">
-        <v>22093</v>
+        <v>124075</v>
       </c>
       <c r="G240" s="18">
-        <v>2229680</v>
+        <v>3101867</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6768,19 +6711,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="F241" s="18">
-        <v>77964</v>
+        <v>73033</v>
       </c>
       <c r="G241" s="18">
-        <v>1949088</v>
+        <v>1825843</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6791,19 +6734,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F242" s="18">
-        <v>71969</v>
+        <v>124075</v>
       </c>
       <c r="G242" s="18">
-        <v>1890798</v>
+        <v>3101867</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6814,19 +6757,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F243" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G243" s="18">
-        <v>1890798</v>
+        <v>1825843</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6837,19 +6780,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="F244" s="18">
-        <v>71969</v>
+        <v>124075</v>
       </c>
       <c r="G244" s="18">
-        <v>1890798</v>
+        <v>3101867</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6860,19 +6803,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="F245" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G245" s="18">
-        <v>1890798</v>
+        <v>1825843</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6883,19 +6826,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="F246" s="18">
-        <v>71969</v>
+        <v>124075</v>
       </c>
       <c r="G246" s="18">
-        <v>1890798</v>
+        <v>3101867</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6906,19 +6849,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>167</v>
+        <v>10</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="F247" s="18">
-        <v>71969</v>
+        <v>73033</v>
       </c>
       <c r="G247" s="18">
-        <v>1890798</v>
+        <v>1825843</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6929,19 +6872,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="F248" s="18">
-        <v>62373</v>
+        <v>124075</v>
       </c>
       <c r="G248" s="18">
-        <v>1890798</v>
+        <v>3101867</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6952,19 +6895,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F249" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G249" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6975,19 +6918,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="F250" s="18">
-        <v>63640</v>
+        <v>124075</v>
       </c>
       <c r="G250" s="18">
-        <v>1884669</v>
+        <v>3101867</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6998,19 +6941,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F251" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G251" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -7021,19 +6964,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="F252" s="18">
-        <v>63640</v>
+        <v>124075</v>
       </c>
       <c r="G252" s="18">
-        <v>1884669</v>
+        <v>3101867</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -7044,19 +6987,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F253" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G253" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -7067,19 +7010,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F254" s="18">
-        <v>63640</v>
+        <v>124075</v>
       </c>
       <c r="G254" s="18">
-        <v>1884669</v>
+        <v>3101867</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -7090,19 +7033,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F255" s="18">
-        <v>63640</v>
+        <v>73033</v>
       </c>
       <c r="G255" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -7113,19 +7056,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="F256" s="18">
-        <v>63640</v>
+        <v>124075</v>
       </c>
       <c r="G256" s="18">
-        <v>1884669</v>
+        <v>3101867</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -7136,19 +7079,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="F257" s="18">
-        <v>40305</v>
+        <v>73033</v>
       </c>
       <c r="G257" s="18">
-        <v>1884669</v>
+        <v>1825843</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -7159,19 +7102,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="F258" s="18">
-        <v>2731</v>
+        <v>124075</v>
       </c>
       <c r="G258" s="18">
-        <v>2048055</v>
+        <v>3101867</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -7182,19 +7125,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="F259" s="18">
-        <v>81923</v>
+        <v>73033</v>
       </c>
       <c r="G259" s="18">
-        <v>2048055</v>
+        <v>1825843</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -7205,19 +7148,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="F260" s="18">
-        <v>69890</v>
+        <v>124075</v>
       </c>
       <c r="G260" s="18">
-        <v>1747269</v>
+        <v>3101867</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -7228,19 +7171,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="F261" s="18">
-        <v>2449</v>
+        <v>73033</v>
       </c>
       <c r="G261" s="18">
-        <v>2077050</v>
+        <v>1825843</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7251,19 +7194,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F262" s="18">
-        <v>81932</v>
+        <v>124075</v>
       </c>
       <c r="G262" s="18">
-        <v>2048297</v>
+        <v>3101867</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7274,19 +7217,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="F263" s="18">
-        <v>4659</v>
+        <v>73033</v>
       </c>
       <c r="G263" s="18">
-        <v>1836730</v>
+        <v>1825843</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7297,19 +7240,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="F264" s="18">
-        <v>6989</v>
+        <v>124075</v>
       </c>
       <c r="G264" s="18">
-        <v>1836730</v>
+        <v>3101867</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7320,19 +7263,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="F265" s="18">
-        <v>150914</v>
+        <v>46254</v>
       </c>
       <c r="G265" s="18">
-        <v>3772850</v>
+        <v>1825843</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7343,19 +7286,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="F266" s="18">
-        <v>150914</v>
+        <v>124075</v>
       </c>
       <c r="G266" s="18">
-        <v>3772850</v>
+        <v>3101867</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7366,19 +7309,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="F267" s="18">
-        <v>150914</v>
+        <v>73033</v>
       </c>
       <c r="G267" s="18">
-        <v>3772850</v>
+        <v>1825843</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7389,19 +7332,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="F268" s="18">
-        <v>150914</v>
+        <v>124075</v>
       </c>
       <c r="G268" s="18">
-        <v>3772850</v>
+        <v>3101867</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7412,19 +7355,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="F269" s="18">
-        <v>150914</v>
+        <v>73033</v>
       </c>
       <c r="G269" s="18">
-        <v>3772850</v>
+        <v>1825843</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7435,19 +7378,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>182</v>
+        <v>75</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="F270" s="18">
-        <v>150914</v>
+        <v>124075</v>
       </c>
       <c r="G270" s="18">
-        <v>3772850</v>
+        <v>3101867</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7458,19 +7401,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="F271" s="18">
-        <v>150914</v>
+        <v>73033</v>
       </c>
       <c r="G271" s="18">
-        <v>3772850</v>
+        <v>1825843</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7481,13 +7424,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="F272" s="18">
         <v>124075</v>
@@ -7504,19 +7447,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="F273" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G273" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7527,13 +7470,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="F274" s="18">
         <v>124075</v>
@@ -7550,19 +7493,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
       <c r="F275" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G275" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7573,13 +7516,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="F276" s="18">
         <v>124075</v>
@@ -7596,19 +7539,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="F277" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G277" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7619,13 +7562,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="F278" s="18">
         <v>124075</v>
@@ -7642,19 +7585,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="F279" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G279" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7665,13 +7608,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="F280" s="18">
         <v>124075</v>
@@ -7688,19 +7631,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="F281" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G281" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7711,13 +7654,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="F282" s="18">
         <v>124075</v>
@@ -7734,19 +7677,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="F283" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G283" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7757,13 +7700,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="F284" s="18">
         <v>124075</v>
@@ -7780,19 +7723,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="F285" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G285" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7803,13 +7746,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="F286" s="18">
         <v>124075</v>
@@ -7826,19 +7769,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="F287" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G287" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7849,13 +7792,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="F288" s="18">
         <v>124075</v>
@@ -7872,19 +7815,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="F289" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G289" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7895,19 +7838,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="F290" s="18">
-        <v>124075</v>
+        <v>102766</v>
       </c>
       <c r="G290" s="18">
-        <v>3101867</v>
+        <v>2569133</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7918,19 +7861,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="F291" s="18">
-        <v>124075</v>
+        <v>89188</v>
       </c>
       <c r="G291" s="18">
-        <v>3101867</v>
+        <v>2229680</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7941,13 +7884,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="F292" s="18">
         <v>124075</v>
@@ -7964,19 +7907,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="F293" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G293" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7987,19 +7930,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="F294" s="18">
-        <v>124075</v>
+        <v>102766</v>
       </c>
       <c r="G294" s="18">
-        <v>3101867</v>
+        <v>2569133</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -8010,19 +7953,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="F295" s="18">
-        <v>124075</v>
+        <v>89188</v>
       </c>
       <c r="G295" s="18">
-        <v>3101867</v>
+        <v>2229680</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -8033,13 +7976,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="F296" s="18">
         <v>124075</v>
@@ -8056,19 +7999,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="F297" s="18">
-        <v>124075</v>
+        <v>93152</v>
       </c>
       <c r="G297" s="18">
-        <v>3101867</v>
+        <v>3108654</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -8079,19 +8022,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="F298" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G298" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -8102,19 +8045,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="F299" s="18">
-        <v>124075</v>
+        <v>89188</v>
       </c>
       <c r="G299" s="18">
-        <v>3101867</v>
+        <v>2229680</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -8125,13 +8068,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="F300" s="18">
         <v>124075</v>
@@ -8148,19 +8091,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="F301" s="18">
-        <v>124075</v>
+        <v>95323</v>
       </c>
       <c r="G301" s="18">
-        <v>3101867</v>
+        <v>4766134</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -8171,19 +8114,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="F302" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G302" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -8194,13 +8137,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="F303" s="18">
         <v>124075</v>
@@ -8217,19 +8160,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="F304" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G304" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8240,19 +8183,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="F305" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G305" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8263,13 +8206,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="F306" s="18">
         <v>124075</v>
@@ -8286,19 +8229,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F307" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G307" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8309,19 +8252,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="F308" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G308" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8332,19 +8275,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="F309" s="18">
-        <v>124075</v>
+        <v>89188</v>
       </c>
       <c r="G309" s="18">
-        <v>3101867</v>
+        <v>2229680</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8355,13 +8298,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F310" s="18">
         <v>124075</v>
@@ -8378,19 +8321,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="F311" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G311" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8401,19 +8344,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="F312" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G312" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8424,19 +8367,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>185</v>
+        <v>56</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="F313" s="18">
-        <v>124075</v>
+        <v>89188</v>
       </c>
       <c r="G313" s="18">
-        <v>3101867</v>
+        <v>2229680</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8447,13 +8390,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="F314" s="18">
         <v>124075</v>
@@ -8470,19 +8413,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="F315" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G315" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8493,19 +8436,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="F316" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G316" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8516,13 +8459,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="F317" s="18">
         <v>124075</v>
@@ -8539,19 +8482,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="F318" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G318" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8562,19 +8505,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="F319" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G319" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8585,13 +8528,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="F320" s="18">
         <v>124075</v>
@@ -8608,19 +8551,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E321" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D321" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E321" s="16" t="s">
-        <v>98</v>
-      </c>
       <c r="F321" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G321" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8631,19 +8574,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D322" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E322" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D322" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E322" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="F322" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G322" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8654,13 +8597,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D323" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E323" s="16" t="s">
         <v>184</v>
-      </c>
-      <c r="D323" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E323" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="F323" s="18">
         <v>124075</v>
@@ -8677,19 +8620,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D324" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E324" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E324" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="F324" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G324" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8700,19 +8643,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D325" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E325" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E325" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="F325" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G325" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8723,13 +8666,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D326" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E326" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="E326" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="F326" s="18">
         <v>124075</v>
@@ -8746,19 +8689,19 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="F327" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G327" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H327" s="19"/>
       <c r="I327" s="19"/>
@@ -8769,19 +8712,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="F328" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G328" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8792,13 +8735,13 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="F329" s="18">
         <v>124075</v>
@@ -8815,19 +8758,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="F330" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G330" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8838,19 +8781,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="F331" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G331" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8861,13 +8804,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="F332" s="18">
         <v>124075</v>
@@ -8884,19 +8827,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="F333" s="18">
-        <v>124075</v>
+        <v>73033</v>
       </c>
       <c r="G333" s="18">
-        <v>3101867</v>
+        <v>1825843</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8907,719 +8850,75 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="F334" s="18">
-        <v>124075</v>
+        <v>116212</v>
       </c>
       <c r="G334" s="18">
-        <v>3101867</v>
+        <v>2905284</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
       <c r="J334" s="20"/>
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B335" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C335" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D335" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E335" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F335" s="18">
+      <c r="B335" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D335" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E335" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F335" s="24">
         <v>124075</v>
       </c>
-      <c r="G335" s="18">
+      <c r="G335" s="24">
         <v>3101867</v>
       </c>
-      <c r="H335" s="19"/>
-      <c r="I335" s="19"/>
-      <c r="J335" s="20"/>
-    </row>
-    <row r="336" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B336" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C336" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D336" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E336" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F336" s="18">
-        <v>124075</v>
-      </c>
-      <c r="G336" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H336" s="19"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="20"/>
-    </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B337" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C337" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D337" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E337" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F337" s="18">
-        <v>124075</v>
-      </c>
-      <c r="G337" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H337" s="19"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="20"/>
-    </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B338" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C338" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D338" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E338" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F338" s="18">
-        <v>124075</v>
-      </c>
-      <c r="G338" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H338" s="19"/>
-      <c r="I338" s="19"/>
-      <c r="J338" s="20"/>
-    </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B339" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C339" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D339" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E339" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F339" s="18">
-        <v>124075</v>
-      </c>
-      <c r="G339" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H339" s="19"/>
-      <c r="I339" s="19"/>
-      <c r="J339" s="20"/>
+      <c r="H335" s="25"/>
+      <c r="I335" s="25"/>
+      <c r="J335" s="26"/>
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B340" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C340" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D340" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E340" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F340" s="18">
-        <v>124075</v>
-      </c>
-      <c r="G340" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H340" s="19"/>
-      <c r="I340" s="19"/>
-      <c r="J340" s="20"/>
+      <c r="B340" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C340" s="32"/>
+      <c r="H340" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1"/>
     </row>
     <row r="341" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B341" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C341" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D341" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E341" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F341" s="18">
-        <v>124075</v>
-      </c>
-      <c r="G341" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H341" s="19"/>
-      <c r="I341" s="19"/>
-      <c r="J341" s="20"/>
-    </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B342" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C342" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D342" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E342" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F342" s="18">
-        <v>124075</v>
-      </c>
-      <c r="G342" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H342" s="19"/>
-      <c r="I342" s="19"/>
-      <c r="J342" s="20"/>
-    </row>
-    <row r="343" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B343" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C343" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D343" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E343" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F343" s="18">
-        <v>124075</v>
-      </c>
-      <c r="G343" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H343" s="19"/>
-      <c r="I343" s="19"/>
-      <c r="J343" s="20"/>
-    </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B344" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C344" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D344" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E344" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F344" s="18">
-        <v>124075</v>
-      </c>
-      <c r="G344" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H344" s="19"/>
-      <c r="I344" s="19"/>
-      <c r="J344" s="20"/>
-    </row>
-    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B345" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C345" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D345" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E345" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F345" s="18">
-        <v>124075</v>
-      </c>
-      <c r="G345" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H345" s="19"/>
-      <c r="I345" s="19"/>
-      <c r="J345" s="20"/>
-    </row>
-    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B346" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C346" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D346" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E346" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F346" s="18">
-        <v>124040</v>
-      </c>
-      <c r="G346" s="18">
-        <v>3101867</v>
-      </c>
-      <c r="H346" s="19"/>
-      <c r="I346" s="19"/>
-      <c r="J346" s="20"/>
-    </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B347" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C347" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D347" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E347" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F347" s="18">
-        <v>66880</v>
-      </c>
-      <c r="G347" s="18">
-        <v>2905284</v>
-      </c>
-      <c r="H347" s="19"/>
-      <c r="I347" s="19"/>
-      <c r="J347" s="20"/>
-    </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B348" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C348" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D348" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E348" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F348" s="18">
-        <v>66880</v>
-      </c>
-      <c r="G348" s="18">
-        <v>2905284</v>
-      </c>
-      <c r="H348" s="19"/>
-      <c r="I348" s="19"/>
-      <c r="J348" s="20"/>
-    </row>
-    <row r="349" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B349" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C349" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D349" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E349" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F349" s="18">
-        <v>66880</v>
-      </c>
-      <c r="G349" s="18">
-        <v>2905284</v>
-      </c>
-      <c r="H349" s="19"/>
-      <c r="I349" s="19"/>
-      <c r="J349" s="20"/>
-    </row>
-    <row r="350" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B350" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C350" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D350" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E350" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F350" s="18">
-        <v>66880</v>
-      </c>
-      <c r="G350" s="18">
-        <v>2905284</v>
-      </c>
-      <c r="H350" s="19"/>
-      <c r="I350" s="19"/>
-      <c r="J350" s="20"/>
-    </row>
-    <row r="351" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B351" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C351" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D351" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E351" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F351" s="18">
-        <v>66880</v>
-      </c>
-      <c r="G351" s="18">
-        <v>2905284</v>
-      </c>
-      <c r="H351" s="19"/>
-      <c r="I351" s="19"/>
-      <c r="J351" s="20"/>
-    </row>
-    <row r="352" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B352" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C352" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D352" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E352" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F352" s="18">
-        <v>132000</v>
-      </c>
-      <c r="G352" s="18">
-        <v>4766134</v>
-      </c>
-      <c r="H352" s="19"/>
-      <c r="I352" s="19"/>
-      <c r="J352" s="20"/>
-    </row>
-    <row r="353" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B353" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C353" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D353" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E353" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F353" s="18">
-        <v>20000</v>
-      </c>
-      <c r="G353" s="18">
-        <v>2721555</v>
-      </c>
-      <c r="H353" s="19"/>
-      <c r="I353" s="19"/>
-      <c r="J353" s="20"/>
-    </row>
-    <row r="354" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B354" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C354" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D354" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E354" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F354" s="18">
-        <v>59815</v>
-      </c>
-      <c r="G354" s="18">
-        <v>3291615</v>
-      </c>
-      <c r="H354" s="19"/>
-      <c r="I354" s="19"/>
-      <c r="J354" s="20"/>
-    </row>
-    <row r="355" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B355" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C355" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D355" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E355" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F355" s="18">
-        <v>102766</v>
-      </c>
-      <c r="G355" s="18">
-        <v>2569133</v>
-      </c>
-      <c r="H355" s="19"/>
-      <c r="I355" s="19"/>
-      <c r="J355" s="20"/>
-    </row>
-    <row r="356" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B356" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C356" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D356" s="17" t="s">
+      <c r="B341" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="E356" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F356" s="18">
-        <v>95323</v>
-      </c>
-      <c r="G356" s="18">
-        <v>4766134</v>
-      </c>
-      <c r="H356" s="19"/>
-      <c r="I356" s="19"/>
-      <c r="J356" s="20"/>
-    </row>
-    <row r="357" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B357" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C357" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D357" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E357" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F357" s="18">
-        <v>46618</v>
-      </c>
-      <c r="G357" s="18">
-        <v>4766134</v>
-      </c>
-      <c r="H357" s="19"/>
-      <c r="I357" s="19"/>
-      <c r="J357" s="20"/>
-    </row>
-    <row r="358" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B358" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C358" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D358" s="17" t="s">
+      <c r="C341" s="32"/>
+      <c r="H341" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E358" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F358" s="18">
-        <v>322741</v>
-      </c>
-      <c r="G358" s="18">
-        <v>8654300</v>
-      </c>
-      <c r="H358" s="19"/>
-      <c r="I358" s="19"/>
-      <c r="J358" s="20"/>
-    </row>
-    <row r="359" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B359" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C359" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D359" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E359" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F359" s="18">
-        <v>93152</v>
-      </c>
-      <c r="G359" s="18">
-        <v>2328818</v>
-      </c>
-      <c r="H359" s="19"/>
-      <c r="I359" s="19"/>
-      <c r="J359" s="20"/>
-    </row>
-    <row r="360" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B360" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C360" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D360" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E360" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F360" s="18">
-        <v>93152</v>
-      </c>
-      <c r="G360" s="18">
-        <v>2328818</v>
-      </c>
-      <c r="H360" s="19"/>
-      <c r="I360" s="19"/>
-      <c r="J360" s="20"/>
-    </row>
-    <row r="361" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B361" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C361" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D361" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E361" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F361" s="18">
-        <v>125892</v>
-      </c>
-      <c r="G361" s="18">
-        <v>3147287</v>
-      </c>
-      <c r="H361" s="19"/>
-      <c r="I361" s="19"/>
-      <c r="J361" s="20"/>
-    </row>
-    <row r="362" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B362" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C362" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D362" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E362" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F362" s="18">
-        <v>102766</v>
-      </c>
-      <c r="G362" s="18">
-        <v>2569133</v>
-      </c>
-      <c r="H362" s="19"/>
-      <c r="I362" s="19"/>
-      <c r="J362" s="20"/>
-    </row>
-    <row r="363" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B363" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C363" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D363" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E363" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F363" s="24">
-        <v>116212</v>
-      </c>
-      <c r="G363" s="24">
-        <v>2905284</v>
-      </c>
-      <c r="H363" s="25"/>
-      <c r="I363" s="25"/>
-      <c r="J363" s="26"/>
-    </row>
-    <row r="368" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B368" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C368" s="32"/>
-      <c r="H368" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I368" s="1"/>
-      <c r="J368" s="1"/>
-    </row>
-    <row r="369" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B369" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C369" s="32"/>
-      <c r="H369" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I369" s="1"/>
-      <c r="J369" s="1"/>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B369:C369"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="H369:J369"/>
-    <mergeCell ref="H368:J368"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="H341:J341"/>
+    <mergeCell ref="H340:J340"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004772356.xlsx
+++ b/Data/EC/NIT-9004772356.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEF8387-F9C9-4103-A4B8-784900705EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31B73AB3-45A4-45C1-99FA-A3A0D82E5E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F19BED18-0603-4030-88EE-9A31BEA8AFCE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EABC5D37-F067-43E7-89E3-A67EFFE7B615}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="205">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -603,6 +603,21 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>73185354</t>
+  </si>
+  <si>
+    <t>CRISTIAN ELISEO VALENCIA BARCO</t>
+  </si>
+  <si>
+    <t>1050962293</t>
+  </si>
+  <si>
+    <t>ELKIN RAFAEL RAMOS PEREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -701,9 +716,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -716,7 +729,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -910,29 +925,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,19 +966,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,7 +1037,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B01A40-51F7-806C-A49D-1DBC3AD477B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A61902-F1FD-B190-A762-B5F0BE316DE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,8 +1388,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA11DCB-7C88-445A-B1EB-A57C9110EBE9}">
-  <dimension ref="B2:J341"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A23C197-F972-47CD-9AA8-725D3777F138}">
+  <dimension ref="B2:J346"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1390,57 +1411,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1456,7 +1477,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9004772356</v>
       </c>
@@ -1469,12 +1490,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>27098528</v>
+        <v>27603520</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1485,17 +1506,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C13" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F13" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1522,13 +1543,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1541,18 +1562,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1564,18 +1585,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>67418</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1685449</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1587,18 +1608,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>41042</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1026063</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1610,18 +1631,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1633,18 +1654,18 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>67418</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1685449</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1656,18 +1677,18 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>41042</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1026063</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1679,18 +1700,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1702,18 +1723,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>67418</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1685449</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1725,18 +1746,18 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>41042</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1026063</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1748,18 +1769,18 @@
       <c r="D25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>59617</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>3367598</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1771,18 +1792,18 @@
       <c r="D26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1794,18 +1815,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1817,18 +1838,18 @@
       <c r="D28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>67418</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1685449</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1840,18 +1861,18 @@
       <c r="D29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>41042</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1026063</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1863,18 +1884,18 @@
       <c r="D30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>34082</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>2250064</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1886,18 +1907,18 @@
       <c r="D31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1909,18 +1930,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1932,18 +1953,18 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>67418</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1685449</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1955,18 +1976,18 @@
       <c r="D34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>41042</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>1026063</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1978,18 +1999,18 @@
       <c r="D35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -2001,18 +2022,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -2024,18 +2045,18 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>67418</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>1685449</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -2047,18 +2068,18 @@
       <c r="D38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>41042</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>1026063</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -2070,18 +2091,18 @@
       <c r="D39" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>59617</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>1490437</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -2093,18 +2114,18 @@
       <c r="D40" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -2116,18 +2137,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -2139,18 +2160,18 @@
       <c r="D42" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>67418</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>1685449</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -2162,18 +2183,18 @@
       <c r="D43" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>41042</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>1026063</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -2185,18 +2206,18 @@
       <c r="D44" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>59617</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>1490437</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -2208,18 +2229,18 @@
       <c r="D45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -2231,18 +2252,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -2254,18 +2275,18 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>67418</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>1685449</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -2277,18 +2298,18 @@
       <c r="D48" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>41042</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>1026063</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2300,18 +2321,18 @@
       <c r="D49" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>59617</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>1490437</v>
       </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2323,18 +2344,18 @@
       <c r="D50" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2346,18 +2367,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2369,18 +2390,18 @@
       <c r="D52" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>67418</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>1685449</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2392,18 +2413,18 @@
       <c r="D53" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>41042</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>1026063</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2415,18 +2436,18 @@
       <c r="D54" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>59617</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>1490437</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2438,18 +2459,18 @@
       <c r="D55" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2461,18 +2482,18 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2484,18 +2505,18 @@
       <c r="D57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>67418</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>1685449</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2507,18 +2528,18 @@
       <c r="D58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>41042</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>1026063</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2530,18 +2551,18 @@
       <c r="D59" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="19">
         <v>59617</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>1490437</v>
       </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2553,18 +2574,18 @@
       <c r="D60" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2576,18 +2597,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F61" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2599,18 +2620,18 @@
       <c r="D62" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>67418</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="19">
         <v>1685449</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2622,18 +2643,18 @@
       <c r="D63" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="19">
         <v>41042</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="19">
         <v>1026063</v>
       </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2645,18 +2666,18 @@
       <c r="D64" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>59617</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="19">
         <v>1490437</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2668,18 +2689,18 @@
       <c r="D65" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F65" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2691,18 +2712,18 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2714,18 +2735,18 @@
       <c r="D67" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>67418</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="19">
         <v>1685449</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2737,18 +2758,18 @@
       <c r="D68" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>41042</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="19">
         <v>1026063</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2760,18 +2781,18 @@
       <c r="D69" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>59617</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="19">
         <v>1490437</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2783,18 +2804,18 @@
       <c r="D70" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F70" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2806,18 +2827,18 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F71" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2829,18 +2850,18 @@
       <c r="D72" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>67418</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="19">
         <v>1685449</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2852,18 +2873,18 @@
       <c r="D73" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>41042</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="19">
         <v>1026063</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2875,18 +2896,18 @@
       <c r="D74" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="19">
         <v>59617</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="19">
         <v>1490437</v>
       </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2898,18 +2919,18 @@
       <c r="D75" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F75" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2921,18 +2942,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F76" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2944,18 +2965,18 @@
       <c r="D77" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>67418</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="19">
         <v>1685449</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2967,18 +2988,18 @@
       <c r="D78" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="19">
         <v>41042</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="19">
         <v>1026063</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2990,18 +3011,18 @@
       <c r="D79" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="19">
         <v>77964</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="19">
         <v>1949088</v>
       </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -3013,18 +3034,18 @@
       <c r="D80" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="19">
         <v>71969</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="19">
         <v>3108654</v>
       </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -3036,18 +3057,18 @@
       <c r="D81" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>59617</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="19">
         <v>1490437</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -3059,18 +3080,18 @@
       <c r="D82" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F82" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -3082,18 +3103,18 @@
       <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F83" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G83" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -3105,18 +3126,18 @@
       <c r="D84" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="19">
         <v>67418</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="19">
         <v>1685449</v>
       </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -3128,18 +3149,18 @@
       <c r="D85" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="19">
         <v>41042</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G85" s="19">
         <v>1026063</v>
       </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -3151,18 +3172,18 @@
       <c r="D86" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="19">
         <v>62373</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G86" s="19">
         <v>1890798</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -3174,18 +3195,18 @@
       <c r="D87" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="19">
         <v>71969</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="19">
         <v>3108654</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -3197,18 +3218,18 @@
       <c r="D88" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="19">
         <v>59617</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="19">
         <v>1490437</v>
       </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -3220,18 +3241,18 @@
       <c r="D89" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F89" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G89" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -3243,18 +3264,18 @@
       <c r="D90" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F90" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -3266,18 +3287,18 @@
       <c r="D91" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="19">
         <v>67418</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="19">
         <v>1685449</v>
       </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -3289,18 +3310,18 @@
       <c r="D92" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="19">
         <v>41042</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="19">
         <v>1026063</v>
       </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3312,18 +3333,18 @@
       <c r="D93" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="19">
         <v>71969</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="19">
         <v>1890798</v>
       </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3335,18 +3356,18 @@
       <c r="D94" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F94" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3358,18 +3379,18 @@
       <c r="D95" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F95" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G95" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3381,18 +3402,18 @@
       <c r="D96" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="19">
         <v>67418</v>
       </c>
-      <c r="G96" s="18">
+      <c r="G96" s="19">
         <v>1685449</v>
       </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3404,18 +3425,18 @@
       <c r="D97" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="19">
         <v>41042</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="19">
         <v>1026063</v>
       </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3427,18 +3448,18 @@
       <c r="D98" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="19">
         <v>71969</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="19">
         <v>1890798</v>
       </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3450,18 +3471,18 @@
       <c r="D99" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F99" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G99" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3473,18 +3494,18 @@
       <c r="D100" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F100" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G100" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3496,18 +3517,18 @@
       <c r="D101" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="19">
         <v>67418</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="19">
         <v>1685449</v>
       </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3519,18 +3540,18 @@
       <c r="D102" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="19">
         <v>41042</v>
       </c>
-      <c r="G102" s="18">
+      <c r="G102" s="19">
         <v>1026063</v>
       </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3542,18 +3563,18 @@
       <c r="D103" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F103" s="18">
+      <c r="F103" s="19">
         <v>71969</v>
       </c>
-      <c r="G103" s="18">
+      <c r="G103" s="19">
         <v>1890798</v>
       </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3565,18 +3586,18 @@
       <c r="D104" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="19">
         <v>40305</v>
       </c>
-      <c r="G104" s="18">
+      <c r="G104" s="19">
         <v>1884669</v>
       </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3588,18 +3609,18 @@
       <c r="D105" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F105" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3611,18 +3632,18 @@
       <c r="D106" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F106" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G106" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3634,18 +3655,18 @@
       <c r="D107" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="19">
         <v>67418</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G107" s="19">
         <v>1685449</v>
       </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3657,18 +3678,18 @@
       <c r="D108" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="19">
         <v>41042</v>
       </c>
-      <c r="G108" s="18">
+      <c r="G108" s="19">
         <v>1026063</v>
       </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3680,18 +3701,18 @@
       <c r="D109" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="19">
         <v>71969</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G109" s="19">
         <v>1890798</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3703,18 +3724,18 @@
       <c r="D110" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="19">
         <v>63640</v>
       </c>
-      <c r="G110" s="18">
+      <c r="G110" s="19">
         <v>1884669</v>
       </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3726,18 +3747,18 @@
       <c r="D111" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F111" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G111" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3749,18 +3770,18 @@
       <c r="D112" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="19">
         <v>71969</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G112" s="19">
         <v>1890798</v>
       </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3772,18 +3793,18 @@
       <c r="D113" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="19">
         <v>63640</v>
       </c>
-      <c r="G113" s="18">
+      <c r="G113" s="19">
         <v>1884669</v>
       </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3795,18 +3816,18 @@
       <c r="D114" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F114" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G114" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3818,18 +3839,18 @@
       <c r="D115" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="19">
         <v>71969</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="19">
         <v>1890798</v>
       </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3841,18 +3862,18 @@
       <c r="D116" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="19">
         <v>63640</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G116" s="19">
         <v>1884669</v>
       </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3864,18 +3885,18 @@
       <c r="D117" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F117" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G117" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3887,18 +3908,18 @@
       <c r="D118" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="19">
         <v>63640</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G118" s="19">
         <v>1884669</v>
       </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3910,18 +3931,18 @@
       <c r="D119" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F119" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G119" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3933,18 +3954,18 @@
       <c r="D120" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F120" s="18">
+      <c r="F120" s="19">
         <v>63640</v>
       </c>
-      <c r="G120" s="18">
+      <c r="G120" s="19">
         <v>1884669</v>
       </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3956,18 +3977,18 @@
       <c r="D121" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F121" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G121" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G121" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3979,18 +4000,18 @@
       <c r="D122" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="19">
         <v>22093</v>
       </c>
-      <c r="G122" s="18">
+      <c r="G122" s="19">
         <v>2229680</v>
       </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -4002,18 +4023,18 @@
       <c r="D123" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F123" s="18">
+      <c r="F123" s="19">
         <v>63640</v>
       </c>
-      <c r="G123" s="18">
+      <c r="G123" s="19">
         <v>1884669</v>
       </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -4025,18 +4046,18 @@
       <c r="D124" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F124" s="18">
+      <c r="F124" s="19">
         <v>35669</v>
       </c>
-      <c r="G124" s="18">
+      <c r="G124" s="19">
         <v>1836730</v>
       </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -4048,18 +4069,18 @@
       <c r="D125" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F125" s="18">
+      <c r="F125" s="19">
         <v>81932</v>
       </c>
-      <c r="G125" s="18">
+      <c r="G125" s="19">
         <v>1949088</v>
       </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -4071,18 +4092,18 @@
       <c r="D126" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F126" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G126" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="F126" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G126" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -4094,18 +4115,18 @@
       <c r="D127" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F127" s="18">
+      <c r="F127" s="19">
         <v>63640</v>
       </c>
-      <c r="G127" s="18">
+      <c r="G127" s="19">
         <v>1884669</v>
       </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -4117,18 +4138,18 @@
       <c r="D128" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F128" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G128" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="F128" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G128" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -4140,18 +4161,18 @@
       <c r="D129" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F129" s="18">
+      <c r="F129" s="19">
         <v>70921</v>
       </c>
-      <c r="G129" s="18">
+      <c r="G129" s="19">
         <v>2457013</v>
       </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -4163,18 +4184,18 @@
       <c r="D130" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F130" s="18">
+      <c r="F130" s="19">
         <v>63640</v>
       </c>
-      <c r="G130" s="18">
+      <c r="G130" s="19">
         <v>1884669</v>
       </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -4186,18 +4207,18 @@
       <c r="D131" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F131" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="F131" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G131" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -4209,18 +4230,18 @@
       <c r="D132" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F132" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G132" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="F132" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G132" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -4232,18 +4253,18 @@
       <c r="D133" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F133" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G133" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="F133" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G133" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -4255,18 +4276,18 @@
       <c r="D134" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F134" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="F134" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G134" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -4278,18 +4299,18 @@
       <c r="D135" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F135" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F135" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G135" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -4301,18 +4322,18 @@
       <c r="D136" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F136" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G136" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="F136" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G136" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -4324,18 +4345,18 @@
       <c r="D137" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F137" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G137" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="F137" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G137" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -4347,18 +4368,18 @@
       <c r="D138" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F138" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G138" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="F138" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G138" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4370,18 +4391,18 @@
       <c r="D139" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="19">
         <v>81932</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G139" s="19">
         <v>3367598</v>
       </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4393,18 +4414,18 @@
       <c r="D140" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F140" s="19">
         <v>124040</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G140" s="19">
         <v>3101867</v>
       </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4416,18 +4437,18 @@
       <c r="D141" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F141" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G141" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4439,18 +4460,18 @@
       <c r="D142" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F142" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G142" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="F142" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G142" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4462,18 +4483,18 @@
       <c r="D143" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F143" s="18">
+      <c r="F143" s="19">
         <v>124075</v>
       </c>
-      <c r="G143" s="18">
+      <c r="G143" s="19">
         <v>3101867</v>
       </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4485,18 +4506,18 @@
       <c r="D144" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F144" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="F144" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G144" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4508,18 +4529,18 @@
       <c r="D145" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F145" s="18">
+      <c r="F145" s="19">
         <v>124075</v>
       </c>
-      <c r="G145" s="18">
+      <c r="G145" s="19">
         <v>3101867</v>
       </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4531,18 +4552,18 @@
       <c r="D146" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F146" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="F146" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G146" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4554,18 +4575,18 @@
       <c r="D147" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F147" s="18">
+      <c r="F147" s="19">
         <v>299212</v>
       </c>
-      <c r="G147" s="18">
+      <c r="G147" s="19">
         <v>7480301</v>
       </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4577,18 +4598,18 @@
       <c r="D148" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F148" s="18">
+      <c r="F148" s="19">
         <v>124075</v>
       </c>
-      <c r="G148" s="18">
+      <c r="G148" s="19">
         <v>3101867</v>
       </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
@@ -4600,18 +4621,18 @@
       <c r="D149" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F149" s="18">
+      <c r="F149" s="19">
         <v>66880</v>
       </c>
-      <c r="G149" s="18">
+      <c r="G149" s="19">
         <v>3108654</v>
       </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
@@ -4623,18 +4644,18 @@
       <c r="D150" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F150" s="18">
+      <c r="F150" s="19">
         <v>132000</v>
       </c>
-      <c r="G150" s="18">
+      <c r="G150" s="19">
         <v>5099764</v>
       </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
@@ -4646,18 +4667,18 @@
       <c r="D151" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F151" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G151" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
+      <c r="F151" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G151" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
@@ -4669,18 +4690,18 @@
       <c r="D152" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F152" s="18">
+      <c r="F152" s="19">
         <v>299212</v>
       </c>
-      <c r="G152" s="18">
+      <c r="G152" s="19">
         <v>7480301</v>
       </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
@@ -4692,18 +4713,18 @@
       <c r="D153" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F153" s="18">
+      <c r="F153" s="19">
         <v>81923</v>
       </c>
-      <c r="G153" s="18">
+      <c r="G153" s="19">
         <v>2048055</v>
       </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
@@ -4715,18 +4736,18 @@
       <c r="D154" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F154" s="18">
+      <c r="F154" s="19">
         <v>124075</v>
       </c>
-      <c r="G154" s="18">
+      <c r="G154" s="19">
         <v>3101867</v>
       </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
@@ -4738,18 +4759,18 @@
       <c r="D155" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F155" s="18">
+      <c r="F155" s="19">
         <v>66880</v>
       </c>
-      <c r="G155" s="18">
+      <c r="G155" s="19">
         <v>3108654</v>
       </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
@@ -4761,18 +4782,18 @@
       <c r="D156" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F156" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G156" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
+      <c r="F156" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G156" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
@@ -4784,18 +4805,18 @@
       <c r="D157" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F157" s="18">
+      <c r="F157" s="19">
         <v>19947</v>
       </c>
-      <c r="G157" s="18">
+      <c r="G157" s="19">
         <v>7480301</v>
       </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
@@ -4807,18 +4828,18 @@
       <c r="D158" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F158" s="18">
+      <c r="F158" s="19">
         <v>2731</v>
       </c>
-      <c r="G158" s="18">
+      <c r="G158" s="19">
         <v>2048055</v>
       </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
@@ -4830,18 +4851,18 @@
       <c r="D159" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F159" s="18">
+      <c r="F159" s="19">
         <v>124075</v>
       </c>
-      <c r="G159" s="18">
+      <c r="G159" s="19">
         <v>3101867</v>
       </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
@@ -4853,18 +4874,18 @@
       <c r="D160" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F160" s="18">
+      <c r="F160" s="19">
         <v>66880</v>
       </c>
-      <c r="G160" s="18">
+      <c r="G160" s="19">
         <v>3108654</v>
       </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
@@ -4876,18 +4897,18 @@
       <c r="D161" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F161" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G161" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="F161" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G161" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
@@ -4899,18 +4920,18 @@
       <c r="D162" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F162" s="18">
+      <c r="F162" s="19">
         <v>124075</v>
       </c>
-      <c r="G162" s="18">
+      <c r="G162" s="19">
         <v>3101867</v>
       </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
@@ -4922,18 +4943,18 @@
       <c r="D163" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F163" s="18">
+      <c r="F163" s="19">
         <v>66880</v>
       </c>
-      <c r="G163" s="18">
+      <c r="G163" s="19">
         <v>3108654</v>
       </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
@@ -4945,18 +4966,18 @@
       <c r="D164" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F164" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G164" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
+      <c r="F164" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G164" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
@@ -4968,18 +4989,18 @@
       <c r="D165" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F165" s="18">
+      <c r="F165" s="19">
         <v>124075</v>
       </c>
-      <c r="G165" s="18">
+      <c r="G165" s="19">
         <v>3101867</v>
       </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
@@ -4991,18 +5012,18 @@
       <c r="D166" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F166" s="18">
+      <c r="F166" s="19">
         <v>66880</v>
       </c>
-      <c r="G166" s="18">
+      <c r="G166" s="19">
         <v>3108654</v>
       </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
@@ -5014,18 +5035,18 @@
       <c r="D167" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F167" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G167" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
+      <c r="F167" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G167" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
@@ -5037,18 +5058,18 @@
       <c r="D168" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F168" s="18">
+      <c r="F168" s="19">
         <v>69890</v>
       </c>
-      <c r="G168" s="18">
+      <c r="G168" s="19">
         <v>1747269</v>
       </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
@@ -5060,18 +5081,18 @@
       <c r="D169" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F169" s="18">
+      <c r="F169" s="19">
         <v>124075</v>
       </c>
-      <c r="G169" s="18">
+      <c r="G169" s="19">
         <v>3101867</v>
       </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
@@ -5083,18 +5104,18 @@
       <c r="D170" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F170" s="18">
+      <c r="F170" s="19">
         <v>103560</v>
       </c>
-      <c r="G170" s="18">
+      <c r="G170" s="19">
         <v>2792588</v>
       </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
@@ -5106,18 +5127,18 @@
       <c r="D171" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F171" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G171" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
+      <c r="F171" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G171" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="21"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
@@ -5129,18 +5150,18 @@
       <c r="D172" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F172" s="18">
+      <c r="F172" s="19">
         <v>4659</v>
       </c>
-      <c r="G172" s="18">
+      <c r="G172" s="19">
         <v>1747269</v>
       </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="21"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
@@ -5152,18 +5173,18 @@
       <c r="D173" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F173" s="18">
+      <c r="F173" s="19">
         <v>6989</v>
       </c>
-      <c r="G173" s="18">
+      <c r="G173" s="19">
         <v>1747269</v>
       </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="21"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
@@ -5175,18 +5196,18 @@
       <c r="D174" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F174" s="18">
+      <c r="F174" s="19">
         <v>124075</v>
       </c>
-      <c r="G174" s="18">
+      <c r="G174" s="19">
         <v>3101867</v>
       </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="21"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
@@ -5198,18 +5219,18 @@
       <c r="D175" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F175" s="18">
+      <c r="F175" s="19">
         <v>103560</v>
       </c>
-      <c r="G175" s="18">
+      <c r="G175" s="19">
         <v>2792588</v>
       </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="21"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
@@ -5221,18 +5242,18 @@
       <c r="D176" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F176" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G176" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
+      <c r="F176" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G176" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="21"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
@@ -5244,18 +5265,18 @@
       <c r="D177" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F177" s="18">
+      <c r="F177" s="19">
         <v>124075</v>
       </c>
-      <c r="G177" s="18">
+      <c r="G177" s="19">
         <v>3101867</v>
       </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="21"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
@@ -5267,18 +5288,18 @@
       <c r="D178" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F178" s="18">
+      <c r="F178" s="19">
         <v>103560</v>
       </c>
-      <c r="G178" s="18">
+      <c r="G178" s="19">
         <v>2792588</v>
       </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="21"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
@@ -5290,18 +5311,18 @@
       <c r="D179" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F179" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G179" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
+      <c r="F179" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G179" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="21"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
@@ -5313,18 +5334,18 @@
       <c r="D180" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F180" s="18">
+      <c r="F180" s="19">
         <v>124075</v>
       </c>
-      <c r="G180" s="18">
+      <c r="G180" s="19">
         <v>3101867</v>
       </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="21"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="15" t="s">
@@ -5336,18 +5357,18 @@
       <c r="D181" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F181" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G181" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
+      <c r="F181" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G181" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="21"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
@@ -5359,18 +5380,18 @@
       <c r="D182" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="E182" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F182" s="18">
+      <c r="F182" s="19">
         <v>124075</v>
       </c>
-      <c r="G182" s="18">
+      <c r="G182" s="19">
         <v>3101867</v>
       </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="21"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
@@ -5382,18 +5403,18 @@
       <c r="D183" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E183" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F183" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G183" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
+      <c r="F183" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G183" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="21"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
@@ -5405,18 +5426,18 @@
       <c r="D184" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E184" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F184" s="18">
+      <c r="F184" s="19">
         <v>124075</v>
       </c>
-      <c r="G184" s="18">
+      <c r="G184" s="19">
         <v>3101867</v>
       </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="21"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
@@ -5428,18 +5449,18 @@
       <c r="D185" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E185" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F185" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G185" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
+      <c r="F185" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G185" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="21"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
@@ -5451,18 +5472,18 @@
       <c r="D186" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="E186" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F186" s="18">
+      <c r="F186" s="19">
         <v>124075</v>
       </c>
-      <c r="G186" s="18">
+      <c r="G186" s="19">
         <v>3101867</v>
       </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="21"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
@@ -5474,18 +5495,18 @@
       <c r="D187" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F187" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G187" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
+      <c r="F187" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G187" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="21"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="15" t="s">
@@ -5497,18 +5518,18 @@
       <c r="D188" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="E188" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F188" s="18">
+      <c r="F188" s="19">
         <v>124075</v>
       </c>
-      <c r="G188" s="18">
+      <c r="G188" s="19">
         <v>3101867</v>
       </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="21"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
@@ -5520,18 +5541,18 @@
       <c r="D189" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="E189" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F189" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G189" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
+      <c r="F189" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G189" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="21"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
@@ -5543,18 +5564,18 @@
       <c r="D190" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E190" s="16" t="s">
+      <c r="E190" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F190" s="18">
+      <c r="F190" s="19">
         <v>124075</v>
       </c>
-      <c r="G190" s="18">
+      <c r="G190" s="19">
         <v>3101867</v>
       </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="21"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
@@ -5566,18 +5587,18 @@
       <c r="D191" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="E191" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F191" s="18">
+      <c r="F191" s="19">
         <v>20000</v>
       </c>
-      <c r="G191" s="18">
+      <c r="G191" s="19">
         <v>2500000</v>
       </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="21"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
@@ -5589,18 +5610,18 @@
       <c r="D192" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E192" s="16" t="s">
+      <c r="E192" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F192" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G192" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
+      <c r="F192" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G192" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="21"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="15" t="s">
@@ -5612,18 +5633,18 @@
       <c r="D193" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E193" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F193" s="18">
+      <c r="F193" s="19">
         <v>124075</v>
       </c>
-      <c r="G193" s="18">
+      <c r="G193" s="19">
         <v>3101867</v>
       </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="21"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
@@ -5635,18 +5656,18 @@
       <c r="D194" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="E194" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F194" s="18">
+      <c r="F194" s="19">
         <v>59815</v>
       </c>
-      <c r="G194" s="18">
+      <c r="G194" s="19">
         <v>3291615</v>
       </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
@@ -5658,18 +5679,18 @@
       <c r="D195" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E195" s="16" t="s">
+      <c r="E195" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F195" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G195" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
+      <c r="F195" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G195" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="21"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
@@ -5681,18 +5702,18 @@
       <c r="D196" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E196" s="16" t="s">
+      <c r="E196" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F196" s="18">
+      <c r="F196" s="19">
         <v>124075</v>
       </c>
-      <c r="G196" s="18">
+      <c r="G196" s="19">
         <v>3101867</v>
       </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="21"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
@@ -5704,18 +5725,18 @@
       <c r="D197" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E197" s="16" t="s">
+      <c r="E197" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F197" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G197" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
+      <c r="F197" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G197" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="21"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
@@ -5727,18 +5748,18 @@
       <c r="D198" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E198" s="16" t="s">
+      <c r="E198" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F198" s="18">
+      <c r="F198" s="19">
         <v>124075</v>
       </c>
-      <c r="G198" s="18">
+      <c r="G198" s="19">
         <v>3101867</v>
       </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="21"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
@@ -5750,18 +5771,18 @@
       <c r="D199" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E199" s="16" t="s">
+      <c r="E199" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F199" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G199" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
+      <c r="F199" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G199" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="21"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
@@ -5773,18 +5794,18 @@
       <c r="D200" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E200" s="16" t="s">
+      <c r="E200" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F200" s="18">
+      <c r="F200" s="19">
         <v>124075</v>
       </c>
-      <c r="G200" s="18">
+      <c r="G200" s="19">
         <v>3101867</v>
       </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="21"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
@@ -5796,18 +5817,18 @@
       <c r="D201" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E201" s="16" t="s">
+      <c r="E201" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F201" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G201" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
+      <c r="F201" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G201" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="21"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" s="15" t="s">
@@ -5819,18 +5840,18 @@
       <c r="D202" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E202" s="16" t="s">
+      <c r="E202" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F202" s="18">
+      <c r="F202" s="19">
         <v>124075</v>
       </c>
-      <c r="G202" s="18">
+      <c r="G202" s="19">
         <v>3101867</v>
       </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="21"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" s="15" t="s">
@@ -5842,18 +5863,18 @@
       <c r="D203" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E203" s="16" t="s">
+      <c r="E203" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F203" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G203" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
+      <c r="F203" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G203" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="21"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
@@ -5865,18 +5886,18 @@
       <c r="D204" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E204" s="16" t="s">
+      <c r="E204" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F204" s="18">
+      <c r="F204" s="19">
         <v>2449</v>
       </c>
-      <c r="G204" s="18">
+      <c r="G204" s="19">
         <v>1836730</v>
       </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="21"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
@@ -5888,18 +5909,18 @@
       <c r="D205" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E205" s="16" t="s">
+      <c r="E205" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F205" s="18">
+      <c r="F205" s="19">
         <v>124075</v>
       </c>
-      <c r="G205" s="18">
+      <c r="G205" s="19">
         <v>3101867</v>
       </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="21"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="15" t="s">
@@ -5911,18 +5932,18 @@
       <c r="D206" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E206" s="16" t="s">
+      <c r="E206" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F206" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G206" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
+      <c r="F206" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G206" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="21"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="15" t="s">
@@ -5934,18 +5955,18 @@
       <c r="D207" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E207" s="16" t="s">
+      <c r="E207" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F207" s="18">
+      <c r="F207" s="19">
         <v>124075</v>
       </c>
-      <c r="G207" s="18">
+      <c r="G207" s="19">
         <v>3101867</v>
       </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="21"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
@@ -5957,18 +5978,18 @@
       <c r="D208" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E208" s="16" t="s">
+      <c r="E208" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F208" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G208" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
+      <c r="F208" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G208" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="21"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
@@ -5980,18 +6001,18 @@
       <c r="D209" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E209" s="16" t="s">
+      <c r="E209" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F209" s="18">
+      <c r="F209" s="19">
         <v>124075</v>
       </c>
-      <c r="G209" s="18">
+      <c r="G209" s="19">
         <v>3101867</v>
       </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="21"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
@@ -6003,18 +6024,18 @@
       <c r="D210" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E210" s="16" t="s">
+      <c r="E210" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F210" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G210" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
+      <c r="F210" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G210" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="21"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
@@ -6026,18 +6047,18 @@
       <c r="D211" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E211" s="16" t="s">
+      <c r="E211" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F211" s="18">
+      <c r="F211" s="19">
         <v>124075</v>
       </c>
-      <c r="G211" s="18">
+      <c r="G211" s="19">
         <v>3101867</v>
       </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="21"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
@@ -6049,18 +6070,18 @@
       <c r="D212" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F212" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G212" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
+      <c r="F212" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G212" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="21"/>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
@@ -6072,18 +6093,18 @@
       <c r="D213" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E213" s="16" t="s">
+      <c r="E213" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F213" s="18">
+      <c r="F213" s="19">
         <v>124075</v>
       </c>
-      <c r="G213" s="18">
+      <c r="G213" s="19">
         <v>3101867</v>
       </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="21"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
@@ -6095,18 +6116,18 @@
       <c r="D214" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E214" s="16" t="s">
+      <c r="E214" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F214" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G214" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
+      <c r="F214" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G214" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="21"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
@@ -6118,18 +6139,18 @@
       <c r="D215" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E215" s="16" t="s">
+      <c r="E215" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F215" s="18">
+      <c r="F215" s="19">
         <v>124075</v>
       </c>
-      <c r="G215" s="18">
+      <c r="G215" s="19">
         <v>3101867</v>
       </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="21"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
@@ -6141,18 +6162,18 @@
       <c r="D216" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E216" s="16" t="s">
+      <c r="E216" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F216" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G216" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
+      <c r="F216" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G216" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="21"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
@@ -6164,18 +6185,18 @@
       <c r="D217" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E217" s="16" t="s">
+      <c r="E217" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F217" s="18">
+      <c r="F217" s="19">
         <v>124075</v>
       </c>
-      <c r="G217" s="18">
+      <c r="G217" s="19">
         <v>3101867</v>
       </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="21"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
@@ -6187,18 +6208,18 @@
       <c r="D218" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E218" s="16" t="s">
+      <c r="E218" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F218" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G218" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
+      <c r="F218" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G218" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="21"/>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
@@ -6210,18 +6231,18 @@
       <c r="D219" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E219" s="16" t="s">
+      <c r="E219" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F219" s="18">
+      <c r="F219" s="19">
         <v>124075</v>
       </c>
-      <c r="G219" s="18">
+      <c r="G219" s="19">
         <v>3101867</v>
       </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="21"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
@@ -6233,18 +6254,18 @@
       <c r="D220" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E220" s="16" t="s">
+      <c r="E220" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F220" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G220" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
+      <c r="F220" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G220" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="21"/>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
@@ -6256,18 +6277,18 @@
       <c r="D221" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E221" s="16" t="s">
+      <c r="E221" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F221" s="18">
+      <c r="F221" s="19">
         <v>124075</v>
       </c>
-      <c r="G221" s="18">
+      <c r="G221" s="19">
         <v>3101867</v>
       </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="21"/>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
@@ -6279,18 +6300,18 @@
       <c r="D222" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E222" s="16" t="s">
+      <c r="E222" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F222" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G222" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
+      <c r="F222" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G222" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H222" s="20"/>
+      <c r="I222" s="20"/>
+      <c r="J222" s="21"/>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
@@ -6302,18 +6323,18 @@
       <c r="D223" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E223" s="16" t="s">
+      <c r="E223" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F223" s="18">
+      <c r="F223" s="19">
         <v>124075</v>
       </c>
-      <c r="G223" s="18">
+      <c r="G223" s="19">
         <v>3101867</v>
       </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="21"/>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
@@ -6325,18 +6346,18 @@
       <c r="D224" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E224" s="16" t="s">
+      <c r="E224" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F224" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G224" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
+      <c r="F224" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G224" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="21"/>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
@@ -6348,18 +6369,18 @@
       <c r="D225" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E225" s="16" t="s">
+      <c r="E225" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F225" s="18">
+      <c r="F225" s="19">
         <v>18000</v>
       </c>
-      <c r="G225" s="18">
+      <c r="G225" s="19">
         <v>2250064</v>
       </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+      <c r="J225" s="21"/>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
@@ -6371,18 +6392,18 @@
       <c r="D226" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E226" s="16" t="s">
+      <c r="E226" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F226" s="18">
+      <c r="F226" s="19">
         <v>124075</v>
       </c>
-      <c r="G226" s="18">
+      <c r="G226" s="19">
         <v>3101867</v>
       </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="21"/>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
@@ -6394,18 +6415,18 @@
       <c r="D227" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E227" s="16" t="s">
+      <c r="E227" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F227" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G227" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
+      <c r="F227" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G227" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="21"/>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B228" s="15" t="s">
@@ -6417,18 +6438,18 @@
       <c r="D228" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E228" s="16" t="s">
+      <c r="E228" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F228" s="18">
+      <c r="F228" s="19">
         <v>59129</v>
       </c>
-      <c r="G228" s="18">
+      <c r="G228" s="19">
         <v>4612606</v>
       </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
+      <c r="H228" s="20"/>
+      <c r="I228" s="20"/>
+      <c r="J228" s="21"/>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B229" s="15" t="s">
@@ -6440,18 +6461,18 @@
       <c r="D229" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E229" s="16" t="s">
+      <c r="E229" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F229" s="18">
+      <c r="F229" s="19">
         <v>124075</v>
       </c>
-      <c r="G229" s="18">
+      <c r="G229" s="19">
         <v>3101867</v>
       </c>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
+      <c r="H229" s="20"/>
+      <c r="I229" s="20"/>
+      <c r="J229" s="21"/>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B230" s="15" t="s">
@@ -6463,18 +6484,18 @@
       <c r="D230" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E230" s="16" t="s">
+      <c r="E230" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F230" s="18">
+      <c r="F230" s="19">
         <v>46618</v>
       </c>
-      <c r="G230" s="18">
+      <c r="G230" s="19">
         <v>4766134</v>
       </c>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="20"/>
+      <c r="H230" s="20"/>
+      <c r="I230" s="20"/>
+      <c r="J230" s="21"/>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B231" s="15" t="s">
@@ -6486,18 +6507,18 @@
       <c r="D231" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E231" s="16" t="s">
+      <c r="E231" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F231" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G231" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="20"/>
+      <c r="F231" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G231" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="21"/>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B232" s="15" t="s">
@@ -6509,18 +6530,18 @@
       <c r="D232" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E232" s="16" t="s">
+      <c r="E232" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F232" s="18">
+      <c r="F232" s="19">
         <v>124075</v>
       </c>
-      <c r="G232" s="18">
+      <c r="G232" s="19">
         <v>3101867</v>
       </c>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="21"/>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B233" s="15" t="s">
@@ -6532,18 +6553,18 @@
       <c r="D233" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E233" s="16" t="s">
+      <c r="E233" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F233" s="18">
+      <c r="F233" s="19">
         <v>92352</v>
       </c>
-      <c r="G233" s="18">
+      <c r="G233" s="19">
         <v>3804925</v>
       </c>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="21"/>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B234" s="15" t="s">
@@ -6555,18 +6576,18 @@
       <c r="D234" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E234" s="16" t="s">
+      <c r="E234" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F234" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G234" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="20"/>
+      <c r="F234" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G234" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="21"/>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B235" s="15" t="s">
@@ -6578,18 +6599,18 @@
       <c r="D235" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E235" s="16" t="s">
+      <c r="E235" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F235" s="18">
+      <c r="F235" s="19">
         <v>124075</v>
       </c>
-      <c r="G235" s="18">
+      <c r="G235" s="19">
         <v>3101867</v>
       </c>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="20"/>
+      <c r="H235" s="20"/>
+      <c r="I235" s="20"/>
+      <c r="J235" s="21"/>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B236" s="15" t="s">
@@ -6601,18 +6622,18 @@
       <c r="D236" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E236" s="16" t="s">
+      <c r="E236" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F236" s="18">
+      <c r="F236" s="19">
         <v>322741</v>
       </c>
-      <c r="G236" s="18">
+      <c r="G236" s="19">
         <v>8068525</v>
       </c>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="20"/>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20"/>
+      <c r="J236" s="21"/>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B237" s="15" t="s">
@@ -6624,18 +6645,18 @@
       <c r="D237" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E237" s="16" t="s">
+      <c r="E237" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F237" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G237" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="20"/>
+      <c r="F237" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G237" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="21"/>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B238" s="15" t="s">
@@ -6647,18 +6668,18 @@
       <c r="D238" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E238" s="16" t="s">
+      <c r="E238" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F238" s="18">
+      <c r="F238" s="19">
         <v>124075</v>
       </c>
-      <c r="G238" s="18">
+      <c r="G238" s="19">
         <v>3101867</v>
       </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
+      <c r="H238" s="20"/>
+      <c r="I238" s="20"/>
+      <c r="J238" s="21"/>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B239" s="15" t="s">
@@ -6670,18 +6691,18 @@
       <c r="D239" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E239" s="16" t="s">
+      <c r="E239" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F239" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G239" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
+      <c r="F239" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G239" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H239" s="20"/>
+      <c r="I239" s="20"/>
+      <c r="J239" s="21"/>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B240" s="15" t="s">
@@ -6693,18 +6714,18 @@
       <c r="D240" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E240" s="16" t="s">
+      <c r="E240" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F240" s="18">
+      <c r="F240" s="19">
         <v>124075</v>
       </c>
-      <c r="G240" s="18">
+      <c r="G240" s="19">
         <v>3101867</v>
       </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20"/>
+      <c r="J240" s="21"/>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B241" s="15" t="s">
@@ -6716,18 +6737,18 @@
       <c r="D241" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E241" s="16" t="s">
+      <c r="E241" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F241" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G241" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
+      <c r="F241" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G241" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20"/>
+      <c r="J241" s="21"/>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B242" s="15" t="s">
@@ -6739,18 +6760,18 @@
       <c r="D242" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E242" s="16" t="s">
+      <c r="E242" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F242" s="18">
+      <c r="F242" s="19">
         <v>124075</v>
       </c>
-      <c r="G242" s="18">
+      <c r="G242" s="19">
         <v>3101867</v>
       </c>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
+      <c r="H242" s="20"/>
+      <c r="I242" s="20"/>
+      <c r="J242" s="21"/>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" s="15" t="s">
@@ -6762,18 +6783,18 @@
       <c r="D243" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E243" s="16" t="s">
+      <c r="E243" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F243" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G243" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="20"/>
+      <c r="F243" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G243" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="21"/>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B244" s="15" t="s">
@@ -6785,18 +6806,18 @@
       <c r="D244" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E244" s="16" t="s">
+      <c r="E244" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F244" s="18">
+      <c r="F244" s="19">
         <v>124075</v>
       </c>
-      <c r="G244" s="18">
+      <c r="G244" s="19">
         <v>3101867</v>
       </c>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="20"/>
+      <c r="H244" s="20"/>
+      <c r="I244" s="20"/>
+      <c r="J244" s="21"/>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B245" s="15" t="s">
@@ -6808,18 +6829,18 @@
       <c r="D245" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E245" s="16" t="s">
+      <c r="E245" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F245" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G245" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
+      <c r="F245" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G245" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H245" s="20"/>
+      <c r="I245" s="20"/>
+      <c r="J245" s="21"/>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B246" s="15" t="s">
@@ -6831,18 +6852,18 @@
       <c r="D246" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E246" s="16" t="s">
+      <c r="E246" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F246" s="18">
+      <c r="F246" s="19">
         <v>124075</v>
       </c>
-      <c r="G246" s="18">
+      <c r="G246" s="19">
         <v>3101867</v>
       </c>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="20"/>
+      <c r="H246" s="20"/>
+      <c r="I246" s="20"/>
+      <c r="J246" s="21"/>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B247" s="15" t="s">
@@ -6854,18 +6875,18 @@
       <c r="D247" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E247" s="16" t="s">
+      <c r="E247" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F247" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G247" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="20"/>
+      <c r="F247" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G247" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H247" s="20"/>
+      <c r="I247" s="20"/>
+      <c r="J247" s="21"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B248" s="15" t="s">
@@ -6877,18 +6898,18 @@
       <c r="D248" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E248" s="16" t="s">
+      <c r="E248" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F248" s="18">
+      <c r="F248" s="19">
         <v>124075</v>
       </c>
-      <c r="G248" s="18">
+      <c r="G248" s="19">
         <v>3101867</v>
       </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="21"/>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B249" s="15" t="s">
@@ -6900,18 +6921,18 @@
       <c r="D249" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E249" s="16" t="s">
+      <c r="E249" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F249" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G249" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
+      <c r="F249" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G249" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H249" s="20"/>
+      <c r="I249" s="20"/>
+      <c r="J249" s="21"/>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B250" s="15" t="s">
@@ -6923,18 +6944,18 @@
       <c r="D250" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E250" s="16" t="s">
+      <c r="E250" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F250" s="18">
+      <c r="F250" s="19">
         <v>124075</v>
       </c>
-      <c r="G250" s="18">
+      <c r="G250" s="19">
         <v>3101867</v>
       </c>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
+      <c r="H250" s="20"/>
+      <c r="I250" s="20"/>
+      <c r="J250" s="21"/>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B251" s="15" t="s">
@@ -6946,18 +6967,18 @@
       <c r="D251" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E251" s="16" t="s">
+      <c r="E251" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F251" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G251" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
+      <c r="F251" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G251" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="21"/>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B252" s="15" t="s">
@@ -6969,18 +6990,18 @@
       <c r="D252" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E252" s="16" t="s">
+      <c r="E252" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F252" s="18">
+      <c r="F252" s="19">
         <v>124075</v>
       </c>
-      <c r="G252" s="18">
+      <c r="G252" s="19">
         <v>3101867</v>
       </c>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
+      <c r="H252" s="20"/>
+      <c r="I252" s="20"/>
+      <c r="J252" s="21"/>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B253" s="15" t="s">
@@ -6992,18 +7013,18 @@
       <c r="D253" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E253" s="16" t="s">
+      <c r="E253" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F253" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G253" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
+      <c r="F253" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G253" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="21"/>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B254" s="15" t="s">
@@ -7015,18 +7036,18 @@
       <c r="D254" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E254" s="16" t="s">
+      <c r="E254" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F254" s="18">
+      <c r="F254" s="19">
         <v>124075</v>
       </c>
-      <c r="G254" s="18">
+      <c r="G254" s="19">
         <v>3101867</v>
       </c>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
+      <c r="H254" s="20"/>
+      <c r="I254" s="20"/>
+      <c r="J254" s="21"/>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B255" s="15" t="s">
@@ -7038,18 +7059,18 @@
       <c r="D255" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E255" s="16" t="s">
+      <c r="E255" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F255" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G255" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
+      <c r="F255" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G255" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H255" s="20"/>
+      <c r="I255" s="20"/>
+      <c r="J255" s="21"/>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B256" s="15" t="s">
@@ -7061,18 +7082,18 @@
       <c r="D256" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E256" s="16" t="s">
+      <c r="E256" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F256" s="18">
+      <c r="F256" s="19">
         <v>124075</v>
       </c>
-      <c r="G256" s="18">
+      <c r="G256" s="19">
         <v>3101867</v>
       </c>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="20"/>
+      <c r="H256" s="20"/>
+      <c r="I256" s="20"/>
+      <c r="J256" s="21"/>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B257" s="15" t="s">
@@ -7084,18 +7105,18 @@
       <c r="D257" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E257" s="16" t="s">
+      <c r="E257" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F257" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G257" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="20"/>
+      <c r="F257" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G257" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H257" s="20"/>
+      <c r="I257" s="20"/>
+      <c r="J257" s="21"/>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B258" s="15" t="s">
@@ -7107,18 +7128,18 @@
       <c r="D258" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E258" s="16" t="s">
+      <c r="E258" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F258" s="18">
+      <c r="F258" s="19">
         <v>124075</v>
       </c>
-      <c r="G258" s="18">
+      <c r="G258" s="19">
         <v>3101867</v>
       </c>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="20"/>
+      <c r="H258" s="20"/>
+      <c r="I258" s="20"/>
+      <c r="J258" s="21"/>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B259" s="15" t="s">
@@ -7130,18 +7151,18 @@
       <c r="D259" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E259" s="16" t="s">
+      <c r="E259" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="F259" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G259" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="20"/>
+      <c r="F259" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G259" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="21"/>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B260" s="15" t="s">
@@ -7153,18 +7174,18 @@
       <c r="D260" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E260" s="16" t="s">
+      <c r="E260" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="F260" s="18">
+      <c r="F260" s="19">
         <v>124075</v>
       </c>
-      <c r="G260" s="18">
+      <c r="G260" s="19">
         <v>3101867</v>
       </c>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="20"/>
+      <c r="H260" s="20"/>
+      <c r="I260" s="20"/>
+      <c r="J260" s="21"/>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B261" s="15" t="s">
@@ -7176,18 +7197,18 @@
       <c r="D261" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E261" s="16" t="s">
+      <c r="E261" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F261" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G261" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="20"/>
+      <c r="F261" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G261" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H261" s="20"/>
+      <c r="I261" s="20"/>
+      <c r="J261" s="21"/>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B262" s="15" t="s">
@@ -7199,18 +7220,18 @@
       <c r="D262" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E262" s="16" t="s">
+      <c r="E262" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F262" s="18">
+      <c r="F262" s="19">
         <v>124075</v>
       </c>
-      <c r="G262" s="18">
+      <c r="G262" s="19">
         <v>3101867</v>
       </c>
-      <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="20"/>
+      <c r="H262" s="20"/>
+      <c r="I262" s="20"/>
+      <c r="J262" s="21"/>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B263" s="15" t="s">
@@ -7222,18 +7243,18 @@
       <c r="D263" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E263" s="16" t="s">
+      <c r="E263" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F263" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G263" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
-      <c r="J263" s="20"/>
+      <c r="F263" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G263" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H263" s="20"/>
+      <c r="I263" s="20"/>
+      <c r="J263" s="21"/>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B264" s="15" t="s">
@@ -7245,18 +7266,18 @@
       <c r="D264" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E264" s="16" t="s">
+      <c r="E264" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F264" s="18">
+      <c r="F264" s="19">
         <v>124075</v>
       </c>
-      <c r="G264" s="18">
+      <c r="G264" s="19">
         <v>3101867</v>
       </c>
-      <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
-      <c r="J264" s="20"/>
+      <c r="H264" s="20"/>
+      <c r="I264" s="20"/>
+      <c r="J264" s="21"/>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B265" s="15" t="s">
@@ -7268,18 +7289,18 @@
       <c r="D265" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E265" s="16" t="s">
+      <c r="E265" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F265" s="18">
+      <c r="F265" s="19">
         <v>46254</v>
       </c>
-      <c r="G265" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
-      <c r="J265" s="20"/>
+      <c r="G265" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+      <c r="J265" s="21"/>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B266" s="15" t="s">
@@ -7291,18 +7312,18 @@
       <c r="D266" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E266" s="16" t="s">
+      <c r="E266" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F266" s="18">
+      <c r="F266" s="19">
         <v>124075</v>
       </c>
-      <c r="G266" s="18">
+      <c r="G266" s="19">
         <v>3101867</v>
       </c>
-      <c r="H266" s="19"/>
-      <c r="I266" s="19"/>
-      <c r="J266" s="20"/>
+      <c r="H266" s="20"/>
+      <c r="I266" s="20"/>
+      <c r="J266" s="21"/>
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B267" s="15" t="s">
@@ -7314,18 +7335,18 @@
       <c r="D267" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E267" s="16" t="s">
+      <c r="E267" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="F267" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G267" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
-      <c r="J267" s="20"/>
+      <c r="F267" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G267" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H267" s="20"/>
+      <c r="I267" s="20"/>
+      <c r="J267" s="21"/>
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B268" s="15" t="s">
@@ -7337,18 +7358,18 @@
       <c r="D268" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E268" s="16" t="s">
+      <c r="E268" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="F268" s="18">
+      <c r="F268" s="19">
         <v>124075</v>
       </c>
-      <c r="G268" s="18">
+      <c r="G268" s="19">
         <v>3101867</v>
       </c>
-      <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="20"/>
+      <c r="H268" s="20"/>
+      <c r="I268" s="20"/>
+      <c r="J268" s="21"/>
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B269" s="15" t="s">
@@ -7360,18 +7381,18 @@
       <c r="D269" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E269" s="16" t="s">
+      <c r="E269" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F269" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G269" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
-      <c r="J269" s="20"/>
+      <c r="F269" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G269" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="J269" s="21"/>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B270" s="15" t="s">
@@ -7383,18 +7404,18 @@
       <c r="D270" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E270" s="16" t="s">
+      <c r="E270" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F270" s="18">
+      <c r="F270" s="19">
         <v>124075</v>
       </c>
-      <c r="G270" s="18">
+      <c r="G270" s="19">
         <v>3101867</v>
       </c>
-      <c r="H270" s="19"/>
-      <c r="I270" s="19"/>
-      <c r="J270" s="20"/>
+      <c r="H270" s="20"/>
+      <c r="I270" s="20"/>
+      <c r="J270" s="21"/>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B271" s="15" t="s">
@@ -7406,18 +7427,18 @@
       <c r="D271" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E271" s="16" t="s">
+      <c r="E271" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="F271" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G271" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
-      <c r="J271" s="20"/>
+      <c r="F271" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G271" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+      <c r="J271" s="21"/>
     </row>
     <row r="272" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B272" s="15" t="s">
@@ -7429,18 +7450,18 @@
       <c r="D272" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E272" s="16" t="s">
+      <c r="E272" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="F272" s="18">
+      <c r="F272" s="19">
         <v>124075</v>
       </c>
-      <c r="G272" s="18">
+      <c r="G272" s="19">
         <v>3101867</v>
       </c>
-      <c r="H272" s="19"/>
-      <c r="I272" s="19"/>
-      <c r="J272" s="20"/>
+      <c r="H272" s="20"/>
+      <c r="I272" s="20"/>
+      <c r="J272" s="21"/>
     </row>
     <row r="273" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B273" s="15" t="s">
@@ -7452,18 +7473,18 @@
       <c r="D273" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E273" s="16" t="s">
+      <c r="E273" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F273" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G273" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H273" s="19"/>
-      <c r="I273" s="19"/>
-      <c r="J273" s="20"/>
+      <c r="F273" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G273" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H273" s="20"/>
+      <c r="I273" s="20"/>
+      <c r="J273" s="21"/>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B274" s="15" t="s">
@@ -7475,18 +7496,18 @@
       <c r="D274" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E274" s="16" t="s">
+      <c r="E274" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F274" s="18">
+      <c r="F274" s="19">
         <v>124075</v>
       </c>
-      <c r="G274" s="18">
+      <c r="G274" s="19">
         <v>3101867</v>
       </c>
-      <c r="H274" s="19"/>
-      <c r="I274" s="19"/>
-      <c r="J274" s="20"/>
+      <c r="H274" s="20"/>
+      <c r="I274" s="20"/>
+      <c r="J274" s="21"/>
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B275" s="15" t="s">
@@ -7498,18 +7519,18 @@
       <c r="D275" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E275" s="16" t="s">
+      <c r="E275" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F275" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G275" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H275" s="19"/>
-      <c r="I275" s="19"/>
-      <c r="J275" s="20"/>
+      <c r="F275" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G275" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H275" s="20"/>
+      <c r="I275" s="20"/>
+      <c r="J275" s="21"/>
     </row>
     <row r="276" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B276" s="15" t="s">
@@ -7521,18 +7542,18 @@
       <c r="D276" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E276" s="16" t="s">
+      <c r="E276" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F276" s="18">
+      <c r="F276" s="19">
         <v>124075</v>
       </c>
-      <c r="G276" s="18">
+      <c r="G276" s="19">
         <v>3101867</v>
       </c>
-      <c r="H276" s="19"/>
-      <c r="I276" s="19"/>
-      <c r="J276" s="20"/>
+      <c r="H276" s="20"/>
+      <c r="I276" s="20"/>
+      <c r="J276" s="21"/>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B277" s="15" t="s">
@@ -7544,18 +7565,18 @@
       <c r="D277" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E277" s="16" t="s">
+      <c r="E277" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F277" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G277" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H277" s="19"/>
-      <c r="I277" s="19"/>
-      <c r="J277" s="20"/>
+      <c r="F277" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G277" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H277" s="20"/>
+      <c r="I277" s="20"/>
+      <c r="J277" s="21"/>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B278" s="15" t="s">
@@ -7567,18 +7588,18 @@
       <c r="D278" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E278" s="16" t="s">
+      <c r="E278" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F278" s="18">
+      <c r="F278" s="19">
         <v>124075</v>
       </c>
-      <c r="G278" s="18">
+      <c r="G278" s="19">
         <v>3101867</v>
       </c>
-      <c r="H278" s="19"/>
-      <c r="I278" s="19"/>
-      <c r="J278" s="20"/>
+      <c r="H278" s="20"/>
+      <c r="I278" s="20"/>
+      <c r="J278" s="21"/>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B279" s="15" t="s">
@@ -7590,18 +7611,18 @@
       <c r="D279" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E279" s="16" t="s">
+      <c r="E279" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F279" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G279" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H279" s="19"/>
-      <c r="I279" s="19"/>
-      <c r="J279" s="20"/>
+      <c r="F279" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G279" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H279" s="20"/>
+      <c r="I279" s="20"/>
+      <c r="J279" s="21"/>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B280" s="15" t="s">
@@ -7613,18 +7634,18 @@
       <c r="D280" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E280" s="16" t="s">
+      <c r="E280" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F280" s="18">
+      <c r="F280" s="19">
         <v>124075</v>
       </c>
-      <c r="G280" s="18">
+      <c r="G280" s="19">
         <v>3101867</v>
       </c>
-      <c r="H280" s="19"/>
-      <c r="I280" s="19"/>
-      <c r="J280" s="20"/>
+      <c r="H280" s="20"/>
+      <c r="I280" s="20"/>
+      <c r="J280" s="21"/>
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B281" s="15" t="s">
@@ -7636,18 +7657,18 @@
       <c r="D281" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E281" s="16" t="s">
+      <c r="E281" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F281" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G281" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H281" s="19"/>
-      <c r="I281" s="19"/>
-      <c r="J281" s="20"/>
+      <c r="F281" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G281" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H281" s="20"/>
+      <c r="I281" s="20"/>
+      <c r="J281" s="21"/>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B282" s="15" t="s">
@@ -7659,18 +7680,18 @@
       <c r="D282" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E282" s="16" t="s">
+      <c r="E282" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F282" s="18">
+      <c r="F282" s="19">
         <v>124075</v>
       </c>
-      <c r="G282" s="18">
+      <c r="G282" s="19">
         <v>3101867</v>
       </c>
-      <c r="H282" s="19"/>
-      <c r="I282" s="19"/>
-      <c r="J282" s="20"/>
+      <c r="H282" s="20"/>
+      <c r="I282" s="20"/>
+      <c r="J282" s="21"/>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B283" s="15" t="s">
@@ -7682,18 +7703,18 @@
       <c r="D283" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E283" s="16" t="s">
+      <c r="E283" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F283" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G283" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H283" s="19"/>
-      <c r="I283" s="19"/>
-      <c r="J283" s="20"/>
+      <c r="F283" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G283" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H283" s="20"/>
+      <c r="I283" s="20"/>
+      <c r="J283" s="21"/>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B284" s="15" t="s">
@@ -7705,18 +7726,18 @@
       <c r="D284" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E284" s="16" t="s">
+      <c r="E284" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F284" s="18">
+      <c r="F284" s="19">
         <v>124075</v>
       </c>
-      <c r="G284" s="18">
+      <c r="G284" s="19">
         <v>3101867</v>
       </c>
-      <c r="H284" s="19"/>
-      <c r="I284" s="19"/>
-      <c r="J284" s="20"/>
+      <c r="H284" s="20"/>
+      <c r="I284" s="20"/>
+      <c r="J284" s="21"/>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B285" s="15" t="s">
@@ -7728,18 +7749,18 @@
       <c r="D285" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E285" s="16" t="s">
+      <c r="E285" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F285" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G285" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H285" s="19"/>
-      <c r="I285" s="19"/>
-      <c r="J285" s="20"/>
+      <c r="F285" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G285" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H285" s="20"/>
+      <c r="I285" s="20"/>
+      <c r="J285" s="21"/>
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B286" s="15" t="s">
@@ -7751,18 +7772,18 @@
       <c r="D286" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E286" s="16" t="s">
+      <c r="E286" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F286" s="18">
+      <c r="F286" s="19">
         <v>124075</v>
       </c>
-      <c r="G286" s="18">
+      <c r="G286" s="19">
         <v>3101867</v>
       </c>
-      <c r="H286" s="19"/>
-      <c r="I286" s="19"/>
-      <c r="J286" s="20"/>
+      <c r="H286" s="20"/>
+      <c r="I286" s="20"/>
+      <c r="J286" s="21"/>
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B287" s="15" t="s">
@@ -7774,18 +7795,18 @@
       <c r="D287" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E287" s="16" t="s">
+      <c r="E287" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F287" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G287" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H287" s="19"/>
-      <c r="I287" s="19"/>
-      <c r="J287" s="20"/>
+      <c r="F287" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G287" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H287" s="20"/>
+      <c r="I287" s="20"/>
+      <c r="J287" s="21"/>
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B288" s="15" t="s">
@@ -7797,18 +7818,18 @@
       <c r="D288" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E288" s="16" t="s">
+      <c r="E288" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F288" s="18">
+      <c r="F288" s="19">
         <v>124075</v>
       </c>
-      <c r="G288" s="18">
+      <c r="G288" s="19">
         <v>3101867</v>
       </c>
-      <c r="H288" s="19"/>
-      <c r="I288" s="19"/>
-      <c r="J288" s="20"/>
+      <c r="H288" s="20"/>
+      <c r="I288" s="20"/>
+      <c r="J288" s="21"/>
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B289" s="15" t="s">
@@ -7820,18 +7841,18 @@
       <c r="D289" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E289" s="16" t="s">
+      <c r="E289" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="F289" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G289" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H289" s="19"/>
-      <c r="I289" s="19"/>
-      <c r="J289" s="20"/>
+      <c r="F289" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G289" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H289" s="20"/>
+      <c r="I289" s="20"/>
+      <c r="J289" s="21"/>
     </row>
     <row r="290" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B290" s="15" t="s">
@@ -7843,18 +7864,18 @@
       <c r="D290" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E290" s="16" t="s">
+      <c r="E290" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="F290" s="18">
+      <c r="F290" s="19">
         <v>102766</v>
       </c>
-      <c r="G290" s="18">
+      <c r="G290" s="19">
         <v>2569133</v>
       </c>
-      <c r="H290" s="19"/>
-      <c r="I290" s="19"/>
-      <c r="J290" s="20"/>
+      <c r="H290" s="20"/>
+      <c r="I290" s="20"/>
+      <c r="J290" s="21"/>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B291" s="15" t="s">
@@ -7866,18 +7887,18 @@
       <c r="D291" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E291" s="16" t="s">
+      <c r="E291" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="F291" s="18">
+      <c r="F291" s="19">
         <v>89188</v>
       </c>
-      <c r="G291" s="18">
+      <c r="G291" s="19">
         <v>2229680</v>
       </c>
-      <c r="H291" s="19"/>
-      <c r="I291" s="19"/>
-      <c r="J291" s="20"/>
+      <c r="H291" s="20"/>
+      <c r="I291" s="20"/>
+      <c r="J291" s="21"/>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B292" s="15" t="s">
@@ -7889,18 +7910,18 @@
       <c r="D292" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E292" s="16" t="s">
+      <c r="E292" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="F292" s="18">
+      <c r="F292" s="19">
         <v>124075</v>
       </c>
-      <c r="G292" s="18">
+      <c r="G292" s="19">
         <v>3101867</v>
       </c>
-      <c r="H292" s="19"/>
-      <c r="I292" s="19"/>
-      <c r="J292" s="20"/>
+      <c r="H292" s="20"/>
+      <c r="I292" s="20"/>
+      <c r="J292" s="21"/>
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B293" s="15" t="s">
@@ -7912,18 +7933,18 @@
       <c r="D293" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E293" s="16" t="s">
+      <c r="E293" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F293" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G293" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H293" s="19"/>
-      <c r="I293" s="19"/>
-      <c r="J293" s="20"/>
+      <c r="F293" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G293" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H293" s="20"/>
+      <c r="I293" s="20"/>
+      <c r="J293" s="21"/>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B294" s="15" t="s">
@@ -7935,18 +7956,18 @@
       <c r="D294" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E294" s="16" t="s">
+      <c r="E294" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F294" s="18">
+      <c r="F294" s="19">
         <v>102766</v>
       </c>
-      <c r="G294" s="18">
+      <c r="G294" s="19">
         <v>2569133</v>
       </c>
-      <c r="H294" s="19"/>
-      <c r="I294" s="19"/>
-      <c r="J294" s="20"/>
+      <c r="H294" s="20"/>
+      <c r="I294" s="20"/>
+      <c r="J294" s="21"/>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B295" s="15" t="s">
@@ -7958,18 +7979,18 @@
       <c r="D295" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E295" s="16" t="s">
+      <c r="E295" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F295" s="18">
+      <c r="F295" s="19">
         <v>89188</v>
       </c>
-      <c r="G295" s="18">
+      <c r="G295" s="19">
         <v>2229680</v>
       </c>
-      <c r="H295" s="19"/>
-      <c r="I295" s="19"/>
-      <c r="J295" s="20"/>
+      <c r="H295" s="20"/>
+      <c r="I295" s="20"/>
+      <c r="J295" s="21"/>
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B296" s="15" t="s">
@@ -7981,18 +8002,18 @@
       <c r="D296" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E296" s="16" t="s">
+      <c r="E296" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F296" s="18">
+      <c r="F296" s="19">
         <v>124075</v>
       </c>
-      <c r="G296" s="18">
+      <c r="G296" s="19">
         <v>3101867</v>
       </c>
-      <c r="H296" s="19"/>
-      <c r="I296" s="19"/>
-      <c r="J296" s="20"/>
+      <c r="H296" s="20"/>
+      <c r="I296" s="20"/>
+      <c r="J296" s="21"/>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B297" s="15" t="s">
@@ -8004,18 +8025,18 @@
       <c r="D297" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E297" s="16" t="s">
+      <c r="E297" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F297" s="18">
+      <c r="F297" s="19">
         <v>93152</v>
       </c>
-      <c r="G297" s="18">
+      <c r="G297" s="19">
         <v>3108654</v>
       </c>
-      <c r="H297" s="19"/>
-      <c r="I297" s="19"/>
-      <c r="J297" s="20"/>
+      <c r="H297" s="20"/>
+      <c r="I297" s="20"/>
+      <c r="J297" s="21"/>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B298" s="15" t="s">
@@ -8027,18 +8048,18 @@
       <c r="D298" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E298" s="16" t="s">
+      <c r="E298" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F298" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G298" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H298" s="19"/>
-      <c r="I298" s="19"/>
-      <c r="J298" s="20"/>
+      <c r="F298" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G298" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H298" s="20"/>
+      <c r="I298" s="20"/>
+      <c r="J298" s="21"/>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B299" s="15" t="s">
@@ -8050,18 +8071,18 @@
       <c r="D299" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E299" s="16" t="s">
+      <c r="E299" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F299" s="18">
+      <c r="F299" s="19">
         <v>89188</v>
       </c>
-      <c r="G299" s="18">
+      <c r="G299" s="19">
         <v>2229680</v>
       </c>
-      <c r="H299" s="19"/>
-      <c r="I299" s="19"/>
-      <c r="J299" s="20"/>
+      <c r="H299" s="20"/>
+      <c r="I299" s="20"/>
+      <c r="J299" s="21"/>
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B300" s="15" t="s">
@@ -8073,18 +8094,18 @@
       <c r="D300" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E300" s="16" t="s">
+      <c r="E300" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F300" s="18">
+      <c r="F300" s="19">
         <v>124075</v>
       </c>
-      <c r="G300" s="18">
+      <c r="G300" s="19">
         <v>3101867</v>
       </c>
-      <c r="H300" s="19"/>
-      <c r="I300" s="19"/>
-      <c r="J300" s="20"/>
+      <c r="H300" s="20"/>
+      <c r="I300" s="20"/>
+      <c r="J300" s="21"/>
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B301" s="15" t="s">
@@ -8096,18 +8117,18 @@
       <c r="D301" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E301" s="16" t="s">
+      <c r="E301" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F301" s="18">
+      <c r="F301" s="19">
         <v>95323</v>
       </c>
-      <c r="G301" s="18">
+      <c r="G301" s="19">
         <v>4766134</v>
       </c>
-      <c r="H301" s="19"/>
-      <c r="I301" s="19"/>
-      <c r="J301" s="20"/>
+      <c r="H301" s="20"/>
+      <c r="I301" s="20"/>
+      <c r="J301" s="21"/>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B302" s="15" t="s">
@@ -8119,18 +8140,18 @@
       <c r="D302" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E302" s="16" t="s">
+      <c r="E302" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F302" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G302" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H302" s="19"/>
-      <c r="I302" s="19"/>
-      <c r="J302" s="20"/>
+      <c r="F302" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G302" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H302" s="20"/>
+      <c r="I302" s="20"/>
+      <c r="J302" s="21"/>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B303" s="15" t="s">
@@ -8142,18 +8163,18 @@
       <c r="D303" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E303" s="16" t="s">
+      <c r="E303" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F303" s="18">
+      <c r="F303" s="19">
         <v>124075</v>
       </c>
-      <c r="G303" s="18">
+      <c r="G303" s="19">
         <v>3101867</v>
       </c>
-      <c r="H303" s="19"/>
-      <c r="I303" s="19"/>
-      <c r="J303" s="20"/>
+      <c r="H303" s="20"/>
+      <c r="I303" s="20"/>
+      <c r="J303" s="21"/>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B304" s="15" t="s">
@@ -8165,18 +8186,18 @@
       <c r="D304" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E304" s="16" t="s">
+      <c r="E304" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F304" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G304" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H304" s="19"/>
-      <c r="I304" s="19"/>
-      <c r="J304" s="20"/>
+      <c r="F304" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G304" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H304" s="20"/>
+      <c r="I304" s="20"/>
+      <c r="J304" s="21"/>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B305" s="15" t="s">
@@ -8188,18 +8209,18 @@
       <c r="D305" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E305" s="16" t="s">
+      <c r="E305" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F305" s="18">
+      <c r="F305" s="19">
         <v>116212</v>
       </c>
-      <c r="G305" s="18">
+      <c r="G305" s="19">
         <v>2905284</v>
       </c>
-      <c r="H305" s="19"/>
-      <c r="I305" s="19"/>
-      <c r="J305" s="20"/>
+      <c r="H305" s="20"/>
+      <c r="I305" s="20"/>
+      <c r="J305" s="21"/>
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B306" s="15" t="s">
@@ -8211,18 +8232,18 @@
       <c r="D306" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E306" s="16" t="s">
+      <c r="E306" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F306" s="18">
+      <c r="F306" s="19">
         <v>124075</v>
       </c>
-      <c r="G306" s="18">
+      <c r="G306" s="19">
         <v>3101867</v>
       </c>
-      <c r="H306" s="19"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="20"/>
+      <c r="H306" s="20"/>
+      <c r="I306" s="20"/>
+      <c r="J306" s="21"/>
     </row>
     <row r="307" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B307" s="15" t="s">
@@ -8234,18 +8255,18 @@
       <c r="D307" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E307" s="16" t="s">
+      <c r="E307" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F307" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G307" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H307" s="19"/>
-      <c r="I307" s="19"/>
-      <c r="J307" s="20"/>
+      <c r="F307" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G307" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H307" s="20"/>
+      <c r="I307" s="20"/>
+      <c r="J307" s="21"/>
     </row>
     <row r="308" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B308" s="15" t="s">
@@ -8257,18 +8278,18 @@
       <c r="D308" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E308" s="16" t="s">
+      <c r="E308" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F308" s="18">
+      <c r="F308" s="19">
         <v>116212</v>
       </c>
-      <c r="G308" s="18">
+      <c r="G308" s="19">
         <v>2905284</v>
       </c>
-      <c r="H308" s="19"/>
-      <c r="I308" s="19"/>
-      <c r="J308" s="20"/>
+      <c r="H308" s="20"/>
+      <c r="I308" s="20"/>
+      <c r="J308" s="21"/>
     </row>
     <row r="309" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B309" s="15" t="s">
@@ -8280,18 +8301,18 @@
       <c r="D309" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E309" s="16" t="s">
+      <c r="E309" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F309" s="18">
+      <c r="F309" s="19">
         <v>89188</v>
       </c>
-      <c r="G309" s="18">
+      <c r="G309" s="19">
         <v>2229680</v>
       </c>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="20"/>
+      <c r="H309" s="20"/>
+      <c r="I309" s="20"/>
+      <c r="J309" s="21"/>
     </row>
     <row r="310" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B310" s="15" t="s">
@@ -8303,18 +8324,18 @@
       <c r="D310" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E310" s="16" t="s">
+      <c r="E310" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F310" s="18">
+      <c r="F310" s="19">
         <v>124075</v>
       </c>
-      <c r="G310" s="18">
+      <c r="G310" s="19">
         <v>3101867</v>
       </c>
-      <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
-      <c r="J310" s="20"/>
+      <c r="H310" s="20"/>
+      <c r="I310" s="20"/>
+      <c r="J310" s="21"/>
     </row>
     <row r="311" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B311" s="15" t="s">
@@ -8326,18 +8347,18 @@
       <c r="D311" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E311" s="16" t="s">
+      <c r="E311" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="F311" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G311" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H311" s="19"/>
-      <c r="I311" s="19"/>
-      <c r="J311" s="20"/>
+      <c r="F311" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G311" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H311" s="20"/>
+      <c r="I311" s="20"/>
+      <c r="J311" s="21"/>
     </row>
     <row r="312" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B312" s="15" t="s">
@@ -8349,18 +8370,18 @@
       <c r="D312" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E312" s="16" t="s">
+      <c r="E312" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="F312" s="18">
+      <c r="F312" s="19">
         <v>116212</v>
       </c>
-      <c r="G312" s="18">
+      <c r="G312" s="19">
         <v>2905284</v>
       </c>
-      <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="20"/>
+      <c r="H312" s="20"/>
+      <c r="I312" s="20"/>
+      <c r="J312" s="21"/>
     </row>
     <row r="313" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B313" s="15" t="s">
@@ -8372,18 +8393,18 @@
       <c r="D313" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E313" s="16" t="s">
+      <c r="E313" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="F313" s="18">
+      <c r="F313" s="19">
         <v>89188</v>
       </c>
-      <c r="G313" s="18">
+      <c r="G313" s="19">
         <v>2229680</v>
       </c>
-      <c r="H313" s="19"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="20"/>
+      <c r="H313" s="20"/>
+      <c r="I313" s="20"/>
+      <c r="J313" s="21"/>
     </row>
     <row r="314" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B314" s="15" t="s">
@@ -8395,18 +8416,18 @@
       <c r="D314" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E314" s="16" t="s">
+      <c r="E314" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="F314" s="18">
+      <c r="F314" s="19">
         <v>124075</v>
       </c>
-      <c r="G314" s="18">
+      <c r="G314" s="19">
         <v>3101867</v>
       </c>
-      <c r="H314" s="19"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="20"/>
+      <c r="H314" s="20"/>
+      <c r="I314" s="20"/>
+      <c r="J314" s="21"/>
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B315" s="15" t="s">
@@ -8418,18 +8439,18 @@
       <c r="D315" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E315" s="16" t="s">
+      <c r="E315" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="F315" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G315" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H315" s="19"/>
-      <c r="I315" s="19"/>
-      <c r="J315" s="20"/>
+      <c r="F315" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G315" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H315" s="20"/>
+      <c r="I315" s="20"/>
+      <c r="J315" s="21"/>
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B316" s="15" t="s">
@@ -8441,18 +8462,18 @@
       <c r="D316" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E316" s="16" t="s">
+      <c r="E316" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="F316" s="18">
+      <c r="F316" s="19">
         <v>116212</v>
       </c>
-      <c r="G316" s="18">
+      <c r="G316" s="19">
         <v>2905284</v>
       </c>
-      <c r="H316" s="19"/>
-      <c r="I316" s="19"/>
-      <c r="J316" s="20"/>
+      <c r="H316" s="20"/>
+      <c r="I316" s="20"/>
+      <c r="J316" s="21"/>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B317" s="15" t="s">
@@ -8464,18 +8485,18 @@
       <c r="D317" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E317" s="16" t="s">
+      <c r="E317" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="F317" s="18">
+      <c r="F317" s="19">
         <v>124075</v>
       </c>
-      <c r="G317" s="18">
+      <c r="G317" s="19">
         <v>3101867</v>
       </c>
-      <c r="H317" s="19"/>
-      <c r="I317" s="19"/>
-      <c r="J317" s="20"/>
+      <c r="H317" s="20"/>
+      <c r="I317" s="20"/>
+      <c r="J317" s="21"/>
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B318" s="15" t="s">
@@ -8487,18 +8508,18 @@
       <c r="D318" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E318" s="16" t="s">
+      <c r="E318" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F318" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G318" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H318" s="19"/>
-      <c r="I318" s="19"/>
-      <c r="J318" s="20"/>
+      <c r="F318" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G318" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H318" s="20"/>
+      <c r="I318" s="20"/>
+      <c r="J318" s="21"/>
     </row>
     <row r="319" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B319" s="15" t="s">
@@ -8510,18 +8531,18 @@
       <c r="D319" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E319" s="16" t="s">
+      <c r="E319" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F319" s="18">
+      <c r="F319" s="19">
         <v>116212</v>
       </c>
-      <c r="G319" s="18">
+      <c r="G319" s="19">
         <v>2905284</v>
       </c>
-      <c r="H319" s="19"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="20"/>
+      <c r="H319" s="20"/>
+      <c r="I319" s="20"/>
+      <c r="J319" s="21"/>
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B320" s="15" t="s">
@@ -8533,18 +8554,18 @@
       <c r="D320" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E320" s="16" t="s">
+      <c r="E320" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F320" s="18">
+      <c r="F320" s="19">
         <v>124075</v>
       </c>
-      <c r="G320" s="18">
+      <c r="G320" s="19">
         <v>3101867</v>
       </c>
-      <c r="H320" s="19"/>
-      <c r="I320" s="19"/>
-      <c r="J320" s="20"/>
+      <c r="H320" s="20"/>
+      <c r="I320" s="20"/>
+      <c r="J320" s="21"/>
     </row>
     <row r="321" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B321" s="15" t="s">
@@ -8556,18 +8577,18 @@
       <c r="D321" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E321" s="16" t="s">
+      <c r="E321" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="F321" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G321" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H321" s="19"/>
-      <c r="I321" s="19"/>
-      <c r="J321" s="20"/>
+      <c r="F321" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G321" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H321" s="20"/>
+      <c r="I321" s="20"/>
+      <c r="J321" s="21"/>
     </row>
     <row r="322" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B322" s="15" t="s">
@@ -8579,18 +8600,18 @@
       <c r="D322" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E322" s="16" t="s">
+      <c r="E322" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="F322" s="18">
+      <c r="F322" s="19">
         <v>116212</v>
       </c>
-      <c r="G322" s="18">
+      <c r="G322" s="19">
         <v>2905284</v>
       </c>
-      <c r="H322" s="19"/>
-      <c r="I322" s="19"/>
-      <c r="J322" s="20"/>
+      <c r="H322" s="20"/>
+      <c r="I322" s="20"/>
+      <c r="J322" s="21"/>
     </row>
     <row r="323" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B323" s="15" t="s">
@@ -8602,18 +8623,18 @@
       <c r="D323" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E323" s="16" t="s">
+      <c r="E323" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="F323" s="18">
+      <c r="F323" s="19">
         <v>124075</v>
       </c>
-      <c r="G323" s="18">
+      <c r="G323" s="19">
         <v>3101867</v>
       </c>
-      <c r="H323" s="19"/>
-      <c r="I323" s="19"/>
-      <c r="J323" s="20"/>
+      <c r="H323" s="20"/>
+      <c r="I323" s="20"/>
+      <c r="J323" s="21"/>
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B324" s="15" t="s">
@@ -8625,18 +8646,18 @@
       <c r="D324" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E324" s="16" t="s">
+      <c r="E324" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F324" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G324" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H324" s="19"/>
-      <c r="I324" s="19"/>
-      <c r="J324" s="20"/>
+      <c r="F324" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G324" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H324" s="20"/>
+      <c r="I324" s="20"/>
+      <c r="J324" s="21"/>
     </row>
     <row r="325" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B325" s="15" t="s">
@@ -8648,18 +8669,18 @@
       <c r="D325" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E325" s="16" t="s">
+      <c r="E325" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F325" s="18">
+      <c r="F325" s="19">
         <v>116212</v>
       </c>
-      <c r="G325" s="18">
+      <c r="G325" s="19">
         <v>2905284</v>
       </c>
-      <c r="H325" s="19"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="20"/>
+      <c r="H325" s="20"/>
+      <c r="I325" s="20"/>
+      <c r="J325" s="21"/>
     </row>
     <row r="326" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B326" s="15" t="s">
@@ -8671,18 +8692,18 @@
       <c r="D326" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E326" s="16" t="s">
+      <c r="E326" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F326" s="18">
+      <c r="F326" s="19">
         <v>124075</v>
       </c>
-      <c r="G326" s="18">
+      <c r="G326" s="19">
         <v>3101867</v>
       </c>
-      <c r="H326" s="19"/>
-      <c r="I326" s="19"/>
-      <c r="J326" s="20"/>
+      <c r="H326" s="20"/>
+      <c r="I326" s="20"/>
+      <c r="J326" s="21"/>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B327" s="15" t="s">
@@ -8694,18 +8715,18 @@
       <c r="D327" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E327" s="16" t="s">
+      <c r="E327" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F327" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G327" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H327" s="19"/>
-      <c r="I327" s="19"/>
-      <c r="J327" s="20"/>
+      <c r="F327" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G327" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H327" s="20"/>
+      <c r="I327" s="20"/>
+      <c r="J327" s="21"/>
     </row>
     <row r="328" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B328" s="15" t="s">
@@ -8717,18 +8738,18 @@
       <c r="D328" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E328" s="16" t="s">
+      <c r="E328" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F328" s="18">
+      <c r="F328" s="19">
         <v>116212</v>
       </c>
-      <c r="G328" s="18">
+      <c r="G328" s="19">
         <v>2905284</v>
       </c>
-      <c r="H328" s="19"/>
-      <c r="I328" s="19"/>
-      <c r="J328" s="20"/>
+      <c r="H328" s="20"/>
+      <c r="I328" s="20"/>
+      <c r="J328" s="21"/>
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B329" s="15" t="s">
@@ -8740,18 +8761,18 @@
       <c r="D329" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E329" s="16" t="s">
+      <c r="E329" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F329" s="18">
+      <c r="F329" s="19">
         <v>124075</v>
       </c>
-      <c r="G329" s="18">
+      <c r="G329" s="19">
         <v>3101867</v>
       </c>
-      <c r="H329" s="19"/>
-      <c r="I329" s="19"/>
-      <c r="J329" s="20"/>
+      <c r="H329" s="20"/>
+      <c r="I329" s="20"/>
+      <c r="J329" s="21"/>
     </row>
     <row r="330" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B330" s="15" t="s">
@@ -8763,18 +8784,18 @@
       <c r="D330" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E330" s="16" t="s">
+      <c r="E330" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="F330" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G330" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H330" s="19"/>
-      <c r="I330" s="19"/>
-      <c r="J330" s="20"/>
+      <c r="F330" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G330" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H330" s="20"/>
+      <c r="I330" s="20"/>
+      <c r="J330" s="21"/>
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B331" s="15" t="s">
@@ -8786,18 +8807,18 @@
       <c r="D331" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E331" s="16" t="s">
+      <c r="E331" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="F331" s="18">
+      <c r="F331" s="19">
         <v>116212</v>
       </c>
-      <c r="G331" s="18">
+      <c r="G331" s="19">
         <v>2905284</v>
       </c>
-      <c r="H331" s="19"/>
-      <c r="I331" s="19"/>
-      <c r="J331" s="20"/>
+      <c r="H331" s="20"/>
+      <c r="I331" s="20"/>
+      <c r="J331" s="21"/>
     </row>
     <row r="332" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B332" s="15" t="s">
@@ -8809,18 +8830,18 @@
       <c r="D332" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E332" s="16" t="s">
+      <c r="E332" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="F332" s="18">
+      <c r="F332" s="19">
         <v>124075</v>
       </c>
-      <c r="G332" s="18">
+      <c r="G332" s="19">
         <v>3101867</v>
       </c>
-      <c r="H332" s="19"/>
-      <c r="I332" s="19"/>
-      <c r="J332" s="20"/>
+      <c r="H332" s="20"/>
+      <c r="I332" s="20"/>
+      <c r="J332" s="21"/>
     </row>
     <row r="333" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B333" s="15" t="s">
@@ -8832,18 +8853,18 @@
       <c r="D333" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E333" s="16" t="s">
+      <c r="E333" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F333" s="18">
-        <v>73033</v>
-      </c>
-      <c r="G333" s="18">
-        <v>1825843</v>
-      </c>
-      <c r="H333" s="19"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="20"/>
+      <c r="F333" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G333" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H333" s="20"/>
+      <c r="I333" s="20"/>
+      <c r="J333" s="21"/>
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B334" s="15" t="s">
@@ -8855,70 +8876,185 @@
       <c r="D334" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E334" s="16" t="s">
+      <c r="E334" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F334" s="18">
+      <c r="F334" s="19">
         <v>116212</v>
       </c>
-      <c r="G334" s="18">
+      <c r="G334" s="19">
         <v>2905284</v>
       </c>
-      <c r="H334" s="19"/>
-      <c r="I334" s="19"/>
-      <c r="J334" s="20"/>
+      <c r="H334" s="20"/>
+      <c r="I334" s="20"/>
+      <c r="J334" s="21"/>
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B335" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C335" s="22" t="s">
+      <c r="B335" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D335" s="23" t="s">
+      <c r="D335" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E335" s="22" t="s">
+      <c r="E335" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F335" s="24">
+      <c r="F335" s="19">
         <v>124075</v>
       </c>
-      <c r="G335" s="24">
+      <c r="G335" s="19">
         <v>3101867</v>
       </c>
-      <c r="H335" s="25"/>
-      <c r="I335" s="25"/>
-      <c r="J335" s="26"/>
+      <c r="H335" s="20"/>
+      <c r="I335" s="20"/>
+      <c r="J335" s="21"/>
+    </row>
+    <row r="336" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B336" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E336" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F336" s="19">
+        <v>73033</v>
+      </c>
+      <c r="G336" s="19">
+        <v>1825843</v>
+      </c>
+      <c r="H336" s="20"/>
+      <c r="I336" s="20"/>
+      <c r="J336" s="21"/>
+    </row>
+    <row r="337" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B337" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D337" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E337" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F337" s="19">
+        <v>67352</v>
+      </c>
+      <c r="G337" s="19">
+        <v>3367598</v>
+      </c>
+      <c r="H337" s="20"/>
+      <c r="I337" s="20"/>
+      <c r="J337" s="21"/>
+    </row>
+    <row r="338" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B338" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D338" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E338" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F338" s="19">
+        <v>124320</v>
+      </c>
+      <c r="G338" s="19">
+        <v>3108000</v>
+      </c>
+      <c r="H338" s="20"/>
+      <c r="I338" s="20"/>
+      <c r="J338" s="21"/>
+    </row>
+    <row r="339" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B339" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D339" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E339" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F339" s="19">
+        <v>116212</v>
+      </c>
+      <c r="G339" s="19">
+        <v>2905284</v>
+      </c>
+      <c r="H339" s="20"/>
+      <c r="I339" s="20"/>
+      <c r="J339" s="21"/>
     </row>
     <row r="340" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B340" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C340" s="32"/>
-      <c r="H340" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I340" s="1"/>
-      <c r="J340" s="1"/>
-    </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B341" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C341" s="32"/>
-      <c r="H341" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I341" s="1"/>
-      <c r="J341" s="1"/>
+      <c r="B340" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D340" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E340" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F340" s="26">
+        <v>124075</v>
+      </c>
+      <c r="G340" s="26">
+        <v>3101867</v>
+      </c>
+      <c r="H340" s="27"/>
+      <c r="I340" s="27"/>
+      <c r="J340" s="28"/>
+    </row>
+    <row r="345" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B345" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C345" s="34"/>
+      <c r="H345" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+    </row>
+    <row r="346" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B346" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C346" s="34"/>
+      <c r="H346" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="H341:J341"/>
-    <mergeCell ref="H340:J340"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="B345:C345"/>
+    <mergeCell ref="H346:J346"/>
+    <mergeCell ref="H345:J345"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
